--- a/外部設計/資料/円弧配列.xlsx
+++ b/外部設計/資料/円弧配列.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10035" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="基準線" sheetId="1" r:id="rId1"/>
     <sheet name="タイヤ円" sheetId="2" r:id="rId2"/>
     <sheet name="刻印文字登録" sheetId="3" r:id="rId3"/>
+    <sheet name="編集文字登録" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>＜Advance CAD＞</t>
     <phoneticPr fontId="1"/>
@@ -916,24 +917,24 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>571171</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>209227</xdr:rowOff>
+      <xdr:rowOff>228275</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="54" name="グループ化 53"/>
+        <xdr:cNvPr id="10" name="グループ化 9"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="5762625" y="3905250"/>
-          <a:ext cx="2628571" cy="2580952"/>
-          <a:chOff x="5791200" y="4857750"/>
-          <a:chExt cx="2628571" cy="2580952"/>
+          <a:ext cx="2628571" cy="2600000"/>
+          <a:chOff x="5762625" y="3905250"/>
+          <a:chExt cx="2628571" cy="2600000"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="30" name="図 29"/>
+          <xdr:cNvPr id="5" name="図 4"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -946,8 +947,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5791200" y="4857750"/>
-            <a:ext cx="2628571" cy="2580952"/>
+            <a:off x="5762625" y="3905250"/>
+            <a:ext cx="2628571" cy="2600000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -961,7 +962,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5924549" y="5705475"/>
+            <a:off x="5895974" y="4791075"/>
             <a:ext cx="2133601" cy="371475"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1013,7 +1014,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5791200" y="6448425"/>
+            <a:off x="5762625" y="5505450"/>
             <a:ext cx="2486026" cy="371475"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1065,7 +1066,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6400800" y="7029450"/>
+            <a:off x="6372225" y="6076950"/>
             <a:ext cx="1876425" cy="371475"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -1831,32 +1832,32 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114060</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>171124</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>76042</xdr:rowOff>
+      <xdr:rowOff>85567</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="56" name="グループ化 55"/>
+        <xdr:cNvPr id="33" name="グループ化 32"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9439275" y="3895725"/>
-          <a:ext cx="1923810" cy="1266667"/>
-          <a:chOff x="10201275" y="4876800"/>
-          <a:chExt cx="1923810" cy="1266667"/>
+          <a:off x="9496425" y="3905250"/>
+          <a:ext cx="2609524" cy="1266667"/>
+          <a:chOff x="9496425" y="3905250"/>
+          <a:chExt cx="2609524" cy="1266667"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="39" name="図 38"/>
+          <xdr:cNvPr id="20" name="図 19"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -1869,8 +1870,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10201275" y="4876800"/>
-            <a:ext cx="1923810" cy="1266667"/>
+            <a:off x="9496425" y="3905250"/>
+            <a:ext cx="2609524" cy="1266667"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -1884,7 +1885,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="10210800" y="5724525"/>
+            <a:off x="10144125" y="4781550"/>
             <a:ext cx="1857376" cy="371475"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -3940,7 +3941,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="71" name="グループ化 70"/>
+        <xdr:cNvPr id="20" name="グループ化 19"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -3953,7 +3954,7 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="53" name="図 52"/>
+          <xdr:cNvPr id="19" name="図 18"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -4136,32 +4137,32 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>475971</xdr:colOff>
+      <xdr:colOff>495021</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>123542</xdr:rowOff>
+      <xdr:rowOff>114017</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="70" name="グループ化 69"/>
+        <xdr:cNvPr id="22" name="グループ化 21"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9496425" y="3895725"/>
+          <a:off x="9515475" y="3886200"/>
           <a:ext cx="2228571" cy="2266667"/>
-          <a:chOff x="9496425" y="3895725"/>
+          <a:chOff x="9515475" y="3886200"/>
           <a:chExt cx="2228571" cy="2266667"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="66" name="図 65"/>
+          <xdr:cNvPr id="21" name="図 20"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -4174,7 +4175,7 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="9496425" y="3895725"/>
+            <a:off x="9515475" y="3886200"/>
             <a:ext cx="2228571" cy="2266667"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -5479,7 +5480,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="57" name="グループ化 56"/>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5638,7 +5639,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="68" name="グループ化 67"/>
+        <xdr:cNvPr id="113" name="グループ化 112"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -5876,6 +5877,8474 @@
                 </a:solidFill>
               </a:rPr>
               <a:t>③</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="31" name="グループ化 30"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2324100" y="7486650"/>
+          <a:ext cx="2009775" cy="4181475"/>
+          <a:chOff x="2324100" y="7486650"/>
+          <a:chExt cx="2009775" cy="4181475"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="40" name="図 39"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2352675" y="7486650"/>
+            <a:ext cx="1924050" cy="4181475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2324100" y="8505825"/>
+            <a:ext cx="1019175" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3314700" y="7496175"/>
+            <a:ext cx="1019175" cy="657225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5781675" y="7486650"/>
+          <a:ext cx="6867525" cy="571500"/>
+          <a:chOff x="5781675" y="7486650"/>
+          <a:chExt cx="6867525" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5781675" y="7486650"/>
+            <a:ext cx="6867525" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5895976" y="7639050"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Frame</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> drawing</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7410450" y="7591425"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7486652" y="7629525"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Figure</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> definition</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="正方形/長方形 57"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9020177" y="7629525"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Character</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> origin</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="63" name="正方形/長方形 62"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10572752" y="7629525"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Character</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> "regist"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="グループ化 20"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5781675" y="8058150"/>
+          <a:ext cx="2466975" cy="571500"/>
+          <a:chOff x="5781675" y="8058150"/>
+          <a:chExt cx="2466975" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="正方形/長方形 64"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5781675" y="8058150"/>
+            <a:ext cx="2466975" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="正方形/長方形 65"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5876926" y="8191500"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Definition</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="正方形/長方形 68"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6915151" y="8191500"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Released</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="正方形/長方形 70"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5848351" y="8153400"/>
+            <a:ext cx="1009650" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561735</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66517</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="グループ化 27"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772150" y="8886825"/>
+          <a:ext cx="1923810" cy="1266667"/>
+          <a:chOff x="5772150" y="8886825"/>
+          <a:chExt cx="1923810" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="19" name="図 18"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="8886825"/>
+            <a:ext cx="1923810" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="72" name="正方形/長方形 71"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5781675" y="9753600"/>
+            <a:ext cx="1876425" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="グループ化 21"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9210675" y="8191500"/>
+          <a:ext cx="2466975" cy="571500"/>
+          <a:chOff x="9182100" y="8191500"/>
+          <a:chExt cx="2466975" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="正方形/長方形 73"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9182100" y="8191500"/>
+            <a:ext cx="2466975" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="75" name="正方形/長方形 74"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9277351" y="8324850"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Definition</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="正方形/長方形 75"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10315576" y="8324850"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Released</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="77" name="正方形/長方形 76"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10287001" y="8286750"/>
+            <a:ext cx="1009650" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="グループ化 31"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2266950" y="12020550"/>
+          <a:ext cx="2000250" cy="4191000"/>
+          <a:chOff x="2266950" y="12020550"/>
+          <a:chExt cx="2000250" cy="4191000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="78" name="図 77"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2314575" y="12020550"/>
+            <a:ext cx="1924050" cy="4191000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="正方形/長方形 78"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2266950" y="13249275"/>
+            <a:ext cx="1019175" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="正方形/長方形 79"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3248025" y="12077700"/>
+            <a:ext cx="1019175" cy="600075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247363</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85567</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="グループ化 28"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9201150" y="8905875"/>
+          <a:ext cx="2295238" cy="1266667"/>
+          <a:chOff x="9210675" y="8886825"/>
+          <a:chExt cx="2295238" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="25" name="図 24"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9210675" y="8886825"/>
+            <a:ext cx="2295238" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="81" name="正方形/長方形 80"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9534525" y="9772650"/>
+            <a:ext cx="1876425" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="グループ化 23"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5753100" y="12001500"/>
+          <a:ext cx="6867525" cy="571500"/>
+          <a:chOff x="5753100" y="12001500"/>
+          <a:chExt cx="6867525" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="正方形/長方形 82"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5753100" y="12001500"/>
+            <a:ext cx="6867525" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="正方形/長方形 83"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5867401" y="12153900"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Frame</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> drawing</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="正方形/長方形 84"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8924925" y="12106275"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="正方形/長方形 85"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7458077" y="12144375"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Figure</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> definition</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="正方形/長方形 86"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8991602" y="12144375"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Character</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> origin</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="正方形/長方形 87"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10544177" y="12144375"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Character</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> "regist"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="89" name="グループ化 88"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5753100" y="12573000"/>
+          <a:ext cx="2466975" cy="571500"/>
+          <a:chOff x="5781675" y="8058150"/>
+          <a:chExt cx="2466975" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="正方形/長方形 89"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5781675" y="8058150"/>
+            <a:ext cx="2466975" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="正方形/長方形 90"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5876926" y="8191500"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Create</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="正方形/長方形 91"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6915151" y="8191500"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Delete</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="93" name="正方形/長方形 92"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5848351" y="8153400"/>
+            <a:ext cx="1009650" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>361649</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85567</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="111" name="グループ化 110"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772150" y="13430250"/>
+          <a:ext cx="2409524" cy="1266667"/>
+          <a:chOff x="5772150" y="13430250"/>
+          <a:chExt cx="2409524" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="27" name="図 26"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="13430250"/>
+            <a:ext cx="2409524" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="正方形/長方形 93"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6210300" y="14316075"/>
+            <a:ext cx="1876425" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="95" name="グループ化 94"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9201150" y="12725400"/>
+          <a:ext cx="2466975" cy="571500"/>
+          <a:chOff x="5781675" y="8058150"/>
+          <a:chExt cx="2466975" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="96" name="正方形/長方形 95"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5781675" y="8058150"/>
+            <a:ext cx="2466975" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="正方形/長方形 96"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5876926" y="8191500"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Create</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="98" name="正方形/長方形 97"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6915151" y="8191500"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Delete</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="99" name="正方形/長方形 98"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6886576" y="8153400"/>
+            <a:ext cx="1009650" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114030</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>85567</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="34" name="グループ化 33"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9201150" y="13430250"/>
+          <a:ext cx="2161905" cy="1266667"/>
+          <a:chOff x="9201150" y="13430250"/>
+          <a:chExt cx="2161905" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="30" name="図 29"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9201150" y="13430250"/>
+            <a:ext cx="2161905" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="100" name="正方形/長方形 99"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9420225" y="14316075"/>
+            <a:ext cx="1876425" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="33" name="グループ化 32"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2314575" y="16525875"/>
+          <a:ext cx="1962150" cy="4191000"/>
+          <a:chOff x="2314575" y="16525875"/>
+          <a:chExt cx="1962150" cy="4191000"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="101" name="図 100"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2343150" y="16525875"/>
+            <a:ext cx="1933575" cy="4191000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="102" name="正方形/長方形 101"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2314575" y="18173700"/>
+            <a:ext cx="1019175" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="103" name="グループ化 102"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5762625" y="16516350"/>
+          <a:ext cx="6867525" cy="571500"/>
+          <a:chOff x="5753100" y="12001500"/>
+          <a:chExt cx="6867525" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="104" name="正方形/長方形 103"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5753100" y="12001500"/>
+            <a:ext cx="6867525" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5867401" y="12153900"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Frame</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> drawing</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="106" name="正方形/長方形 105"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10467975" y="12106275"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7458077" y="12144375"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Figure</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> definition</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="108" name="正方形/長方形 107"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8991602" y="12144375"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Character</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> origin</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="109" name="正方形/長方形 108"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10544177" y="12144375"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Character</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> "regist"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>523552</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>76042</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="112" name="グループ化 111"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5762625" y="17468850"/>
+          <a:ext cx="2580952" cy="1266667"/>
+          <a:chOff x="5762625" y="17468850"/>
+          <a:chExt cx="2580952" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="35" name="図 34"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5762625" y="17468850"/>
+            <a:ext cx="2580952" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="110" name="正方形/長方形 109"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6391275" y="18354675"/>
+            <a:ext cx="1876425" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180611</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="図 102"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5772150" y="3429000"/>
+          <a:ext cx="2914286" cy="3028571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180974</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="180974" y="771525"/>
+          <a:ext cx="2000251" cy="6391275"/>
+          <a:chOff x="180974" y="781050"/>
+          <a:chExt cx="1985283" cy="6574971"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="図 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="228600" y="835479"/>
+            <a:ext cx="1909082" cy="6520542"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1200150" y="781050"/>
+            <a:ext cx="966107" cy="327932"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="180974" y="3255957"/>
+            <a:ext cx="1028701" cy="278546"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772149" y="838200"/>
+          <a:ext cx="3267076" cy="571500"/>
+          <a:chOff x="5772149" y="838200"/>
+          <a:chExt cx="3267076" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="838200"/>
+            <a:ext cx="3267076" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5867400" y="971550"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Brand</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6905625" y="971550"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>C Hyou</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7953375" y="971550"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>承認申請図</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5838825" y="942975"/>
+            <a:ext cx="1009650" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772149" y="1419225"/>
+          <a:ext cx="5343525" cy="1057275"/>
+          <a:chOff x="5772149" y="1419225"/>
+          <a:chExt cx="5343525" cy="1057275"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="1419225"/>
+            <a:ext cx="5343525" cy="1057275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5867401" y="1552575"/>
+            <a:ext cx="1362074" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Primitive "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7381876" y="1552575"/>
+            <a:ext cx="1343024" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Editing "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8886825" y="1552575"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Brand placement</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5876925" y="1990725"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Character search</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7305674" y="1514475"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="114" name="グループ化 113"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2286000" y="2971800"/>
+          <a:ext cx="2038350" cy="4143375"/>
+          <a:chOff x="2286000" y="2971800"/>
+          <a:chExt cx="2038350" cy="4143375"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="102" name="図 101"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2333625" y="2971800"/>
+            <a:ext cx="1914525" cy="4143375"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2286000" y="3152775"/>
+            <a:ext cx="1019175" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3305175" y="2981325"/>
+            <a:ext cx="1019175" cy="657225"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7343775" y="3971926"/>
+          <a:ext cx="1038226" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6496050" y="5905500"/>
+          <a:ext cx="1876425" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>⑤</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="104" name="正方形/長方形 103"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7343775" y="4305301"/>
+          <a:ext cx="1038226" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6381750" y="4876801"/>
+          <a:ext cx="1038226" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="106" name="正方形/長方形 105"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6381750" y="5210176"/>
+          <a:ext cx="1038226" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="117" name="グループ化 116"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5781675" y="8058150"/>
+          <a:ext cx="4276725" cy="571500"/>
+          <a:chOff x="5781675" y="8058150"/>
+          <a:chExt cx="4276725" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="47" name="正方形/長方形 46"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5781675" y="8058150"/>
+            <a:ext cx="4276725" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5915025" y="8191500"/>
+            <a:ext cx="1600200" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Additional character</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5848350" y="8153400"/>
+            <a:ext cx="1762125" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="115" name="正方形/長方形 114"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7753350" y="8191500"/>
+            <a:ext cx="1600200" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Before adding character</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="126" name="グループ化 125"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2324100" y="7467600"/>
+          <a:ext cx="2000251" cy="4181475"/>
+          <a:chOff x="2324100" y="7467600"/>
+          <a:chExt cx="2000251" cy="4181475"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="113" name="図 112"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2352675" y="7467600"/>
+            <a:ext cx="1924050" cy="4181475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2324100" y="8677275"/>
+            <a:ext cx="1019175" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3314700" y="7496177"/>
+            <a:ext cx="1009650" cy="219074"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="正方形/長方形 115"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3333751" y="8534400"/>
+            <a:ext cx="990600" cy="1200150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85287</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>56755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="図 117"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8515350" y="8886825"/>
+          <a:ext cx="3504762" cy="3161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561735</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>66517</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="205" name="グループ化 204"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772150" y="8886825"/>
+          <a:ext cx="1923810" cy="1266667"/>
+          <a:chOff x="5772150" y="8886825"/>
+          <a:chExt cx="1923810" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="119" name="図 118"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="8886825"/>
+            <a:ext cx="1923810" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="120" name="正方形/長方形 119"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="9763125"/>
+            <a:ext cx="1914525" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="正方形/長方形 120"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10668000" y="9363076"/>
+          <a:ext cx="1038226" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="正方形/長方形 121"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8658224" y="10086976"/>
+          <a:ext cx="2952751" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="正方形/長方形 123"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8667749" y="10953751"/>
+          <a:ext cx="2952751" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9867900" y="11563351"/>
+          <a:ext cx="1885950" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="203" name="グループ化 202"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2314575" y="12458700"/>
+          <a:ext cx="2000251" cy="4181475"/>
+          <a:chOff x="2314575" y="12458700"/>
+          <a:chExt cx="2000251" cy="4181475"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="128" name="図 127"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2343150" y="12458700"/>
+            <a:ext cx="1924050" cy="4181475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="129" name="正方形/長方形 128"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2314575" y="13668375"/>
+            <a:ext cx="1019175" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="130" name="正方形/長方形 129"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3305175" y="12677777"/>
+            <a:ext cx="1009650" cy="219074"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="131" name="正方形/長方形 130"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324226" y="13525500"/>
+            <a:ext cx="990600" cy="1200150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="132" name="グループ化 131"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772150" y="12496800"/>
+          <a:ext cx="4276725" cy="571500"/>
+          <a:chOff x="5781675" y="8058150"/>
+          <a:chExt cx="4276725" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="133" name="正方形/長方形 132"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5781675" y="8058150"/>
+            <a:ext cx="4276725" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="134" name="正方形/長方形 133"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5915025" y="8191500"/>
+            <a:ext cx="1600200" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Additional character</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="135" name="正方形/長方形 134"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7686675" y="8153400"/>
+            <a:ext cx="1762125" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="136" name="正方形/長方形 135"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7753350" y="8191500"/>
+            <a:ext cx="1600200" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Before adding character</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>618877</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76042</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="204" name="グループ化 203"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772150" y="13420725"/>
+          <a:ext cx="1980952" cy="1266667"/>
+          <a:chOff x="5772150" y="13420725"/>
+          <a:chExt cx="1980952" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="138" name="図 137"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="13420725"/>
+            <a:ext cx="1980952" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="139" name="正方形/長方形 138"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5781675" y="14297025"/>
+            <a:ext cx="1914525" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66237</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>66280</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="149" name="グループ化 148"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8496300" y="13420725"/>
+          <a:ext cx="3504762" cy="3161905"/>
+          <a:chOff x="8496300" y="13420725"/>
+          <a:chExt cx="3504762" cy="3161905"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="137" name="図 136"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8496300" y="13420725"/>
+            <a:ext cx="3504762" cy="3161905"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="140" name="正方形/長方形 139"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10906125" y="13906501"/>
+            <a:ext cx="776902" cy="295274"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="141" name="正方形/長方形 140"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8639175" y="14620876"/>
+            <a:ext cx="2937070" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="142" name="正方形/長方形 141"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8648700" y="15478126"/>
+            <a:ext cx="2937070" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>③</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="143" name="正方形/長方形 142"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9867900" y="16097251"/>
+            <a:ext cx="1875935" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>④</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="151" name="グループ化 150"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772150" y="2486025"/>
+          <a:ext cx="6867525" cy="571500"/>
+          <a:chOff x="5772150" y="2486025"/>
+          <a:chExt cx="6867525" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="2486025"/>
+            <a:ext cx="6867525" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="2638425"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>First character</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5838825" y="2600325"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7477127" y="2628900"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>One character</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9077327" y="2628900"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Auto Dimensions</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="150" name="正方形/長方形 149"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10687052" y="2638425"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Character</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> "regist"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="152" name="グループ化 151"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5781675" y="7486650"/>
+          <a:ext cx="6867525" cy="571500"/>
+          <a:chOff x="5772150" y="2486025"/>
+          <a:chExt cx="6867525" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="153" name="正方形/長方形 152"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="2486025"/>
+            <a:ext cx="6867525" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="154" name="正方形/長方形 153"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="2638425"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>First character</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="155" name="正方形/長方形 154"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7400925" y="2590800"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="156" name="正方形/長方形 155"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7477127" y="2628900"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>One character</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="157" name="正方形/長方形 156"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9077327" y="2628900"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Auto Dimensions</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="158" name="正方形/長方形 157"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10687052" y="2638425"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Character</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> "regist"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="159" name="グループ化 158"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5781675" y="17011650"/>
+          <a:ext cx="6867525" cy="571500"/>
+          <a:chOff x="5772150" y="2486025"/>
+          <a:chExt cx="6867525" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="160" name="正方形/長方形 159"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="2486025"/>
+            <a:ext cx="6867525" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="161" name="正方形/長方形 160"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="2638425"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>First character</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="162" name="正方形/長方形 161"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9010650" y="2590800"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="163" name="正方形/長方形 162"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7477127" y="2628900"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>One character</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="164" name="正方形/長方形 163"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9077327" y="2628900"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Auto Dimensions</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="165" name="正方形/長方形 164"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10687052" y="2638425"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Character</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> "regist"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="202" name="グループ化 201"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2324100" y="17002125"/>
+          <a:ext cx="1990726" cy="4162425"/>
+          <a:chOff x="2324100" y="17002125"/>
+          <a:chExt cx="1990726" cy="4162425"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="168" name="図 167"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2352675" y="17002125"/>
+            <a:ext cx="1914525" cy="4162425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="167" name="正方形/長方形 166"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2324100" y="19859625"/>
+            <a:ext cx="1019175" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="170" name="正方形/長方形 169"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3305176" y="17011650"/>
+            <a:ext cx="1009650" cy="600075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="171" name="グループ化 170"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5781675" y="17592675"/>
+          <a:ext cx="3267076" cy="571500"/>
+          <a:chOff x="5772149" y="4048125"/>
+          <a:chExt cx="3267076" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="172" name="正方形/長方形 171"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="4048125"/>
+            <a:ext cx="3267076" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="173" name="正方形/長方形 172"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="4200525"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Create</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="174" name="正方形/長方形 173"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5829299" y="4162425"/>
+            <a:ext cx="876301" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="175" name="正方形/長方形 174"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7115176" y="4200525"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Delete</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="177" name="グループ化 176"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9886950" y="17706975"/>
+          <a:ext cx="3267076" cy="571500"/>
+          <a:chOff x="5772149" y="4048125"/>
+          <a:chExt cx="3267076" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="178" name="正方形/長方形 177"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="4048125"/>
+            <a:ext cx="3267076" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="179" name="正方形/長方形 178"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="4200525"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Create</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="180" name="正方形/長方形 179"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7048499" y="4162425"/>
+            <a:ext cx="876301" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="181" name="正方形/長方形 180"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7115176" y="4200525"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Delete</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647448</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>76042</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="200" name="グループ化 199"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5762625" y="18421350"/>
+          <a:ext cx="2019048" cy="1266667"/>
+          <a:chOff x="5762625" y="18421350"/>
+          <a:chExt cx="2019048" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="176" name="図 175"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5762625" y="18421350"/>
+            <a:ext cx="2019048" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="184" name="正方形/長方形 183"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5819775" y="19297650"/>
+            <a:ext cx="1914525" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>294981</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>76042</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="201" name="グループ化 200"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9877425" y="18421350"/>
+          <a:ext cx="2352381" cy="1266667"/>
+          <a:chOff x="9877425" y="18421350"/>
+          <a:chExt cx="2352381" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="183" name="図 182"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9877425" y="18421350"/>
+            <a:ext cx="2352381" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="185" name="正方形/長方形 184"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10258425" y="19297650"/>
+            <a:ext cx="1914525" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="199" name="グループ化 198"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2314575" y="21516975"/>
+          <a:ext cx="1943100" cy="4152900"/>
+          <a:chOff x="2314575" y="21516975"/>
+          <a:chExt cx="1943100" cy="4152900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="187" name="図 186"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2343150" y="21516975"/>
+            <a:ext cx="1914525" cy="4152900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="188" name="正方形/長方形 187"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2314575" y="24774525"/>
+            <a:ext cx="1019175" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="189" name="グループ化 188"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5781675" y="21526500"/>
+          <a:ext cx="6867525" cy="571500"/>
+          <a:chOff x="5772150" y="2486025"/>
+          <a:chExt cx="6867525" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="190" name="正方形/長方形 189"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="2486025"/>
+            <a:ext cx="6867525" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="191" name="正方形/長方形 190"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="2638425"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>First character</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="192" name="正方形/長方形 191"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10601325" y="2600325"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="193" name="正方形/長方形 192"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7477127" y="2628900"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>One character</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="194" name="正方形/長方形 193"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9077327" y="2628900"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Auto Dimensions</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="195" name="正方形/長方形 194"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10687052" y="2638425"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Character</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> "regist"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>494981</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>76042</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="198" name="グループ化 197"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5762625" y="22469475"/>
+          <a:ext cx="2552381" cy="1266667"/>
+          <a:chOff x="5762625" y="22469475"/>
+          <a:chExt cx="2552381" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="196" name="図 195"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5762625" y="22469475"/>
+            <a:ext cx="2552381" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="197" name="正方形/長方形 196"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6343650" y="23345775"/>
+            <a:ext cx="1914525" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -6152,7 +14621,7 @@
   <dimension ref="B2:J2"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6180,8 +14649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6209,8 +14678,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N98" sqref="N98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/外部設計/資料/円弧配列.xlsx
+++ b/外部設計/資料/円弧配列.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10035" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基準線" sheetId="1" r:id="rId1"/>
@@ -277,647 +277,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="31" name="グループ化 30"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5772149" y="838200"/>
-          <a:ext cx="3267076" cy="571500"/>
-          <a:chOff x="5772149" y="838200"/>
-          <a:chExt cx="3267076" cy="571500"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5772149" y="838200"/>
-            <a:ext cx="3267076" cy="571500"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5867400" y="971550"/>
-            <a:ext cx="933450" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Brand</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="正方形/長方形 14"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6905625" y="971550"/>
-            <a:ext cx="933450" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>C Hyou</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="正方形/長方形 15"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7953375" y="971550"/>
-            <a:ext cx="933450" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>承認申請図</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="正方形/長方形 25"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5838825" y="942975"/>
-            <a:ext cx="1009650" cy="371475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="32" name="グループ化 31"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5781674" y="1419225"/>
-          <a:ext cx="5343525" cy="1057275"/>
-          <a:chOff x="5772149" y="1762125"/>
-          <a:chExt cx="5343525" cy="1057275"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="正方形/長方形 16"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5772149" y="1762125"/>
-            <a:ext cx="5343525" cy="1057275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="正方形/長方形 17"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5867401" y="1895475"/>
-            <a:ext cx="1362074" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Primitive "CH"</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="正方形/長方形 20"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7381876" y="1895475"/>
-            <a:ext cx="1343024" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Editing "CH"</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="正方形/長方形 21"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8886825" y="1895475"/>
-            <a:ext cx="1352549" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Brand placement</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="正方形/長方形 22"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5876925" y="2333625"/>
-            <a:ext cx="1352549" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Character search</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="28" name="正方形/長方形 27"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="8810624" y="1857375"/>
-            <a:ext cx="1514475" cy="371475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>571171</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>228275</xdr:rowOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>209225</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -926,7 +294,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5762625" y="3905250"/>
+          <a:off x="5762625" y="4362450"/>
           <a:ext cx="2628571" cy="2600000"/>
           <a:chOff x="5762625" y="3905250"/>
           <a:chExt cx="2628571" cy="2600000"/>
@@ -1108,488 +476,6 @@
               </a:rPr>
               <a:t>③</a:t>
             </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="53" name="グループ化 52"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5781674" y="3067050"/>
-          <a:ext cx="3267076" cy="571500"/>
-          <a:chOff x="5772149" y="4048125"/>
-          <a:chExt cx="3267076" cy="571500"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="41" name="正方形/長方形 40"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5772149" y="4048125"/>
-            <a:ext cx="3267076" cy="571500"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="42" name="正方形/長方形 41"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5886451" y="4200525"/>
-            <a:ext cx="723900" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Create</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="43" name="正方形/長方形 42"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5829299" y="4162425"/>
-            <a:ext cx="876301" cy="371475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="44" name="正方形/長方形 43"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7115176" y="4200525"/>
-            <a:ext cx="723900" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Delete</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="46" name="グループ化 45"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2343150" y="2962275"/>
-          <a:ext cx="1990725" cy="4181475"/>
-          <a:chOff x="2343150" y="2962275"/>
-          <a:chExt cx="1990725" cy="4181475"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="図 6"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2362200" y="2962275"/>
-            <a:ext cx="1924050" cy="4181475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2343150" y="3770462"/>
-            <a:ext cx="962026" cy="315764"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="3196608"/>
-            <a:ext cx="1009650" cy="832468"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3314700" y="4589612"/>
-            <a:ext cx="1009650" cy="315764"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="45" name="正方形/長方形 44"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324225" y="4160987"/>
-            <a:ext cx="1009650" cy="315764"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1833,14 +719,14 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>171124</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>85567</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114142</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1849,7 +735,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9496425" y="3905250"/>
+          <a:off x="9496425" y="4410075"/>
           <a:ext cx="2609524" cy="1266667"/>
           <a:chOff x="9496425" y="3905250"/>
           <a:chExt cx="2609524" cy="1266667"/>
@@ -1863,7 +749,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1936,238 +822,1830 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="62" name="グループ化 61"/>
+        <xdr:cNvPr id="9" name="グループ化 8"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5781674" y="2486025"/>
-          <a:ext cx="3267076" cy="571500"/>
-          <a:chOff x="5781674" y="2486025"/>
-          <a:chExt cx="3267076" cy="571500"/>
+          <a:off x="5772149" y="838200"/>
+          <a:ext cx="5353050" cy="2800350"/>
+          <a:chOff x="5772149" y="838200"/>
+          <a:chExt cx="5353050" cy="2800350"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="正方形/長方形 23"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5781674" y="2486025"/>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="31" name="グループ化 30"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5772149" y="838200"/>
             <a:ext cx="3267076" cy="571500"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="正方形/長方形 24"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5895975" y="2638425"/>
-            <a:ext cx="1352549" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:chOff x="5772149" y="838200"/>
+            <a:chExt cx="3267076" cy="571500"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5772149" y="838200"/>
+              <a:ext cx="3267076" cy="571500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5867400" y="971550"/>
+              <a:ext cx="933450" cy="285750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Brand</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-              </a:rPr>
-              <a:t>Base</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6905625" y="971550"/>
+              <a:ext cx="933450" cy="285750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>C Hyou</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-              </a:rPr>
-              <a:t> diameter line</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7953375" y="971550"/>
+              <a:ext cx="933450" cy="285750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="正方形/長方形 28"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5838824" y="2600325"/>
-            <a:ext cx="1514475" cy="371475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="61" name="正方形/長方形 60"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7486651" y="2628900"/>
-            <a:ext cx="1352549" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>承認申請図</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5838825" y="942975"/>
+              <a:ext cx="1009650" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="32" name="グループ化 31"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5781674" y="1419225"/>
+            <a:ext cx="5343525" cy="1057275"/>
+            <a:chOff x="5772149" y="1762125"/>
+            <a:chExt cx="5343525" cy="1057275"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5772149" y="1762125"/>
+              <a:ext cx="5343525" cy="1057275"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5867401" y="1895475"/>
+              <a:ext cx="1362074" cy="285750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Primitive "CH"</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-              </a:rPr>
-              <a:t>Baseline</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7381876" y="1895475"/>
+              <a:ext cx="1343024" cy="285750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
-            </a:endParaRPr>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Editing "CH"</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8886825" y="1895475"/>
+              <a:ext cx="1352549" cy="285750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Brand placement</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5876925" y="2333625"/>
+              <a:ext cx="1352549" cy="285750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Character search</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="28" name="正方形/長方形 27"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8810624" y="1857375"/>
+              <a:ext cx="1514475" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="53" name="グループ化 52"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5781674" y="3067050"/>
+            <a:ext cx="3267076" cy="571500"/>
+            <a:chOff x="5772149" y="4048125"/>
+            <a:chExt cx="3267076" cy="571500"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5772149" y="4048125"/>
+              <a:ext cx="3267076" cy="571500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5886451" y="4200525"/>
+              <a:ext cx="723900" cy="285750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Create</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5829299" y="4162425"/>
+              <a:ext cx="876301" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7115176" y="4200525"/>
+              <a:ext cx="723900" cy="285750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Delete</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="62" name="グループ化 61"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5781674" y="2486025"/>
+            <a:ext cx="3267076" cy="571500"/>
+            <a:chOff x="5781674" y="2486025"/>
+            <a:chExt cx="3267076" cy="571500"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5781674" y="2486025"/>
+              <a:ext cx="3267076" cy="571500"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5895975" y="2638425"/>
+              <a:ext cx="1352549" cy="285750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Base</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t> diameter line</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5838824" y="2600325"/>
+              <a:ext cx="1514475" cy="371475"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="61" name="正方形/長方形 60"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7486651" y="2628900"/>
+              <a:ext cx="1352549" cy="285750"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>Baseline</a:t>
+              </a:r>
+              <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線矢印コネクタ 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="928688"/>
+          <a:ext cx="3848100" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>195263</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="122" name="グループ化 121"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1238250" y="1714501"/>
+          <a:ext cx="7743825" cy="2614612"/>
+          <a:chOff x="1238250" y="1714501"/>
+          <a:chExt cx="7743825" cy="2614612"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="72" name="カギ線コネクタ 71"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="4" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1238250" y="2333625"/>
+            <a:ext cx="7267575" cy="1995488"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 13434"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="78" name="直線矢印コネクタ 77"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="8505825" y="1714501"/>
+            <a:ext cx="476250" cy="619124"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="カギ線コネクタ 85"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3276600" y="2800350"/>
+          <a:ext cx="2714625" cy="1285876"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="92" name="直線矢印コネクタ 91"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="123" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="3095625"/>
+          <a:ext cx="1657350" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>185019</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="96" name="カギ線コネクタ 95"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="45" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4333875" y="3886200"/>
+          <a:ext cx="6477000" cy="432669"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11618"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>228601</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="107" name="直線矢印コネクタ 106"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="50" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10810875" y="3533775"/>
+          <a:ext cx="333376" cy="352426"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="直線矢印コネクタ 116"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6248400" y="3533775"/>
+          <a:ext cx="9526" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>657226</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="120" name="直線矢印コネクタ 119"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11210925" y="3562350"/>
+          <a:ext cx="9526" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="125" name="グループ化 124"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2343150" y="2962275"/>
+          <a:ext cx="2000250" cy="4181475"/>
+          <a:chOff x="2343150" y="2962275"/>
+          <a:chExt cx="2000250" cy="4181475"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="図 6"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2362200" y="2962275"/>
+            <a:ext cx="1924050" cy="4181475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2343150" y="3770462"/>
+            <a:ext cx="962026" cy="315764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="3196608"/>
+            <a:ext cx="1009650" cy="832468"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3314700" y="4589612"/>
+            <a:ext cx="1009650" cy="315764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324225" y="4160987"/>
+            <a:ext cx="1009650" cy="315764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="123" name="正方形/長方形 122"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3333750" y="2990849"/>
+            <a:ext cx="1009650" cy="209551"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2199,8 +2677,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="200024" y="771525"/>
-          <a:ext cx="1981201" cy="6391275"/>
+          <a:off x="200024" y="772767"/>
+          <a:ext cx="1981615" cy="6447183"/>
           <a:chOff x="200024" y="771525"/>
           <a:chExt cx="1981201" cy="6391275"/>
         </a:xfrm>
@@ -2358,8 +2836,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5772149" y="838200"/>
-          <a:ext cx="3267076" cy="571500"/>
+          <a:off x="5782502" y="841513"/>
+          <a:ext cx="3273702" cy="575641"/>
           <a:chOff x="5772149" y="838200"/>
           <a:chExt cx="3267076" cy="571500"/>
         </a:xfrm>
@@ -2643,8 +3121,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5772149" y="1419225"/>
-          <a:ext cx="5343525" cy="1057275"/>
+          <a:off x="5782502" y="1426679"/>
+          <a:ext cx="5355121" cy="1067629"/>
           <a:chOff x="5772149" y="1762125"/>
           <a:chExt cx="5343525" cy="1057275"/>
         </a:xfrm>
@@ -2990,8 +3468,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5772149" y="3076575"/>
-          <a:ext cx="3267076" cy="571500"/>
+          <a:off x="5782502" y="3098524"/>
+          <a:ext cx="3273702" cy="575641"/>
           <a:chOff x="5772149" y="4048125"/>
           <a:chExt cx="3267076" cy="571500"/>
         </a:xfrm>
@@ -3223,8 +3701,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9505949" y="3105150"/>
-          <a:ext cx="3267076" cy="571500"/>
+          <a:off x="9524585" y="3127099"/>
+          <a:ext cx="3275358" cy="577712"/>
           <a:chOff x="10191749" y="4057650"/>
           <a:chExt cx="3267076" cy="571500"/>
         </a:xfrm>
@@ -3430,255 +3908,6 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666749</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="50" name="グループ化 49"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2314574" y="2952750"/>
-          <a:ext cx="2038351" cy="4200525"/>
-          <a:chOff x="2314574" y="2952750"/>
-          <a:chExt cx="2038351" cy="4200525"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="47" name="図 46"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2343150" y="2952750"/>
-            <a:ext cx="1943100" cy="4200525"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="正方形/長方形 34"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2314574" y="4018112"/>
-            <a:ext cx="981075" cy="230038"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="正方形/長方形 37"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3333750" y="4829175"/>
-            <a:ext cx="1009650" cy="200025"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="48" name="正方形/長方形 47"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3343275" y="3200400"/>
-            <a:ext cx="1009650" cy="200025"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="49" name="正方形/長方形 48"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3343275" y="5667375"/>
-            <a:ext cx="1009650" cy="200025"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -3705,8 +3934,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5772150" y="2486025"/>
-          <a:ext cx="3267076" cy="571500"/>
+          <a:off x="5782503" y="2503833"/>
+          <a:ext cx="3273702" cy="575641"/>
           <a:chOff x="5762625" y="2705100"/>
           <a:chExt cx="3267076" cy="571500"/>
         </a:xfrm>
@@ -3928,16 +4157,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>670891</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>223631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>485457</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104524</xdr:rowOff>
+      <xdr:colOff>468892</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>87959</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -3946,8 +4175,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5762625" y="3895725"/>
-          <a:ext cx="2542857" cy="2009524"/>
+          <a:off x="5756413" y="4389783"/>
+          <a:ext cx="2547827" cy="2026089"/>
           <a:chOff x="5762625" y="3895725"/>
           <a:chExt cx="2542857" cy="2009524"/>
         </a:xfrm>
@@ -3960,7 +4189,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -4137,15 +4366,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:colOff>274155</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>495021</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>114017</xdr:rowOff>
+      <xdr:colOff>445326</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>130582</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -4154,8 +4383,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9515475" y="3886200"/>
-          <a:ext cx="2228571" cy="2266667"/>
+          <a:off x="9484416" y="4411318"/>
+          <a:ext cx="2233540" cy="2287373"/>
           <a:chOff x="9515475" y="3886200"/>
           <a:chExt cx="2228571" cy="2266667"/>
         </a:xfrm>
@@ -4168,7 +4397,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -4288,6 +4517,807 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>127892</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>281609</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>91108</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="直線矢印コネクタ 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181639" y="931305"/>
+          <a:ext cx="3872948" cy="203412"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>273326</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>513522</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>212656</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="52" name="グループ化 51"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1234109" y="1764196"/>
+          <a:ext cx="7802217" cy="2614612"/>
+          <a:chOff x="1238250" y="1714501"/>
+          <a:chExt cx="7743825" cy="2614612"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="53" name="カギ線コネクタ 52"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1238250" y="2333625"/>
+            <a:ext cx="7267575" cy="1995488"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 13434"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="54" name="直線矢印コネクタ 53"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="8505825" y="1714501"/>
+            <a:ext cx="476250" cy="619124"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="73" name="グループ化 72"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2314988" y="2974699"/>
+          <a:ext cx="2043321" cy="4235726"/>
+          <a:chOff x="2314988" y="2974699"/>
+          <a:chExt cx="2043321" cy="4235726"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="47" name="図 46"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2343634" y="2974699"/>
+            <a:ext cx="1947838" cy="4235726"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2314988" y="4048989"/>
+            <a:ext cx="983467" cy="231966"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3336649" y="4866849"/>
+            <a:ext cx="1012112" cy="201701"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3346197" y="3224424"/>
+            <a:ext cx="1012112" cy="201701"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3346197" y="5712073"/>
+            <a:ext cx="1012112" cy="201701"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="72" name="正方形/長方形 71"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3337916" y="3009078"/>
+            <a:ext cx="1012112" cy="201701"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>505239</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="116" name="グループ化 115"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4358309" y="3325275"/>
+          <a:ext cx="6732104" cy="600682"/>
+          <a:chOff x="4358309" y="3325275"/>
+          <a:chExt cx="6732104" cy="600682"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="71" name="直線矢印コネクタ 70"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="10924761" y="3511827"/>
+            <a:ext cx="165652" cy="414130"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="70" name="カギ線コネクタ 69"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="48" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4358309" y="3325275"/>
+            <a:ext cx="6574734" cy="600682"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 4396"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>639419</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>144755</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>240196</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直線矢印コネクタ 88"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="72" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4350028" y="3109929"/>
+          <a:ext cx="1663146" cy="211397"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>289891</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>210586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333236</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="122" name="グループ化 121"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3313043" y="2935564"/>
+          <a:ext cx="4855541" cy="1247153"/>
+          <a:chOff x="3313043" y="2935564"/>
+          <a:chExt cx="4855541" cy="1247153"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="108" name="直線矢印コネクタ 107"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3313043" y="4157870"/>
+            <a:ext cx="4638261" cy="24847"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="113" name="直線矢印コネクタ 112"/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="63" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="7943022" y="2935564"/>
+            <a:ext cx="225562" cy="1247153"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>505240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514766</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9111</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="直線矢印コネクタ 122"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6278218" y="3520109"/>
+          <a:ext cx="9526" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>655569</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>103119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>665095</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28161</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="124" name="直線矢印コネクタ 123"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11240743" y="3548684"/>
+          <a:ext cx="9526" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8905,49 +9935,696 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="114" name="直線矢印コネクタ 113"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="930910"/>
+          <a:ext cx="3867150" cy="193040"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>255406</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>140843</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="116" name="カギ線コネクタ 115"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1217431" y="1733550"/>
+          <a:ext cx="4783319" cy="1350518"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 21524"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="直線矢印コネクタ 116"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4324350" y="3328988"/>
+          <a:ext cx="2266950" cy="776287"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>471488</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238128</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="118" name="カギ線コネクタ 117"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4064797" y="1550194"/>
+          <a:ext cx="676272" cy="3195640"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -30986"/>
+            <a:gd name="adj2" fmla="val 57973"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>233363</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="122" name="直線矢印コネクタ 121"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="42" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3343275" y="7734300"/>
+          <a:ext cx="4276725" cy="919163"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="126" name="直線矢印コネクタ 125"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="7610475"/>
+          <a:ext cx="1752600" cy="733425"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="129" name="カギ線コネクタ 128"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="76" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257675" y="8039100"/>
+          <a:ext cx="6553201" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 6904"/>
+            <a:gd name="adj2" fmla="val 140000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438152</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="191" name="グループ化 190"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3333750" y="16878300"/>
+          <a:ext cx="7667627" cy="1443038"/>
+          <a:chOff x="3333750" y="16878300"/>
+          <a:chExt cx="7667627" cy="1443038"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="145" name="カギ線コネクタ 144"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="102" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3333750" y="17278350"/>
+            <a:ext cx="7534275" cy="1042988"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 23578"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="162" name="直線矢印コネクタ 161"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="10848975" y="16878300"/>
+            <a:ext cx="152402" cy="419100"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="185" name="直線矢印コネクタ 184"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="12192000"/>
+          <a:ext cx="1809750" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="189" name="カギ線コネクタ 188"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="99" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="12573001"/>
+          <a:ext cx="6562726" cy="619124"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11031"/>
+            <a:gd name="adj2" fmla="val 126154"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="222" name="グループ化 221"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3286125" y="12430126"/>
+          <a:ext cx="6381751" cy="2495550"/>
+          <a:chOff x="3286125" y="12430126"/>
+          <a:chExt cx="6381751" cy="2495550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="169" name="カギ線コネクタ 168"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="79" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3286125" y="13396913"/>
+            <a:ext cx="5619750" cy="1519237"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 24407"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="208" name="カギ線コネクタ 207"/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="87" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="5400000" flipH="1" flipV="1">
+            <a:off x="8034338" y="13292137"/>
+            <a:ext cx="2495550" cy="771527"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 91221"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>180611</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>180596</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="図 102"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5772150" y="3429000"/>
-          <a:ext cx="2914286" cy="3028571"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -8982,7 +10659,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9773,7 +11450,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9900,337 +11577,314 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>180611</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>180596</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="グループ化 18"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7343775" y="3971926"/>
-          <a:ext cx="1038226" cy="304800"/>
+          <a:off x="5772150" y="3429000"/>
+          <a:ext cx="2914286" cy="3028571"/>
+          <a:chOff x="5772150" y="3429000"/>
+          <a:chExt cx="2914286" cy="3028571"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>①</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6496050" y="5905500"/>
-          <a:ext cx="1876425" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>⑤</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>561976</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="正方形/長方形 103"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7343775" y="4305301"/>
-          <a:ext cx="1038226" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>②</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="正方形/長方形 104"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6381750" y="4876801"/>
-          <a:ext cx="1038226" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>③</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="正方形/長方形 105"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6381750" y="5210176"/>
-          <a:ext cx="1038226" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>④</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="103" name="図 102"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="3429000"/>
+            <a:ext cx="2914286" cy="3028571"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7343775" y="3971926"/>
+            <a:ext cx="1038226" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6496050" y="5905500"/>
+            <a:ext cx="1876425" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>⑤</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="104" name="正方形/長方形 103"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7343775" y="4305301"/>
+            <a:ext cx="1038226" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6381750" y="4876801"/>
+            <a:ext cx="1038226" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>③</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="106" name="正方形/長方形 105"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6381750" y="5210176"/>
+            <a:ext cx="1038226" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>④</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -10670,44 +12324,6 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>85287</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>56755</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="118" name="図 117"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8515350" y="8886825"/>
-          <a:ext cx="3504762" cy="3161905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -10742,7 +12358,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -10814,270 +12430,262 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>85287</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>56755</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="正方形/長方形 120"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="グループ化 23"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10668000" y="9363076"/>
-          <a:ext cx="1038226" cy="304800"/>
+          <a:off x="8515350" y="8886825"/>
+          <a:ext cx="3504762" cy="3161905"/>
+          <a:chOff x="8515350" y="8886825"/>
+          <a:chExt cx="3504762" cy="3161905"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>①</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="正方形/長方形 121"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8658224" y="10086976"/>
-          <a:ext cx="2952751" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>②</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>161924</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="正方形/長方形 123"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8667749" y="10953751"/>
-          <a:ext cx="2952751" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>③</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="正方形/長方形 124"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9867900" y="11563351"/>
-          <a:ext cx="1885950" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>④</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="118" name="図 117"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8515350" y="8886825"/>
+            <a:ext cx="3504762" cy="3161905"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="121" name="正方形/長方形 120"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10668000" y="9363076"/>
+            <a:ext cx="1038226" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="122" name="正方形/長方形 121"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8658224" y="10086976"/>
+            <a:ext cx="2952751" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="124" name="正方形/長方形 123"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8667749" y="10953751"/>
+            <a:ext cx="2952751" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>③</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9867900" y="11563351"/>
+            <a:ext cx="1885950" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>④</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -14621,7 +16229,7 @@
   <dimension ref="B2:J2"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14649,8 +16257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14678,8 +16286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" topLeftCell="C65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -14707,8 +16315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N98" sqref="N98"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/外部設計/資料/円弧配列.xlsx
+++ b/外部設計/資料/円弧配列.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10035" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="基準線" sheetId="1" r:id="rId1"/>
     <sheet name="タイヤ円" sheetId="2" r:id="rId2"/>
     <sheet name="刻印文字登録" sheetId="3" r:id="rId3"/>
     <sheet name="編集文字登録" sheetId="4" r:id="rId4"/>
+    <sheet name="ラベリング" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>＜Advance CAD＞</t>
     <phoneticPr fontId="1"/>
@@ -15960,6 +15961,6952 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="123" name="直線矢印コネクタ 122"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="930910"/>
+          <a:ext cx="3848100" cy="231140"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>255406</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>131318</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="127" name="カギ線コネクタ 126"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1217431" y="2381250"/>
+          <a:ext cx="6754994" cy="931418"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 14748"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="144" name="直線矢印コネクタ 143"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="18" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7981950" y="1885950"/>
+          <a:ext cx="80962" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="145" name="カギ線コネクタ 144"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3219450" y="2819400"/>
+          <a:ext cx="2809875" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 170"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="166" name="直線矢印コネクタ 165"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4238625" y="3095625"/>
+          <a:ext cx="3181350" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="169" name="直線矢印コネクタ 168"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="3314700"/>
+          <a:ext cx="3152775" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="182" name="直線矢印コネクタ 181"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229100" y="3495675"/>
+          <a:ext cx="2114550" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342901</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="186" name="カギ線コネクタ 185"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="37" idx="1"/>
+          <a:endCxn id="156" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipH="1">
+          <a:off x="2324099" y="7629525"/>
+          <a:ext cx="5838827" cy="1195388"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -3915"/>
+            <a:gd name="adj2" fmla="val 119123"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="206" name="直線矢印コネクタ 205"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257675" y="7600950"/>
+          <a:ext cx="1762125" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="207" name="カギ線コネクタ 206"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="122" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="8829675"/>
+          <a:ext cx="4381499" cy="1409701"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 86304"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="208" name="カギ線コネクタ 207"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="124" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="9458325"/>
+          <a:ext cx="4391024" cy="1647826"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18547"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>166689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="209" name="カギ線コネクタ 208"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4257675" y="13825539"/>
+          <a:ext cx="4343400" cy="966786"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 20614"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>71439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="212" name="カギ線コネクタ 211"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="14444664"/>
+          <a:ext cx="4362450" cy="1185861"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7642"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>80964</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="216" name="カギ線コネクタ 215"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="130" idx="3"/>
+          <a:endCxn id="135" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4314825" y="12592050"/>
+          <a:ext cx="4243388" cy="195264"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 19416"/>
+            <a:gd name="adj2" fmla="val 217072"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>585788</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>190502</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="223" name="カギ線コネクタ 222"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="162" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3371850" y="17116425"/>
+          <a:ext cx="6405563" cy="2924177"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 18661"/>
+            <a:gd name="adj2" fmla="val 107818"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="231" name="直線矢印コネクタ 230"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4248150" y="17135475"/>
+          <a:ext cx="1762125" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="232" name="カギ線コネクタ 231"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="180" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="17535525"/>
+          <a:ext cx="7334251" cy="657225"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 7792"/>
+            <a:gd name="adj2" fmla="val 124638"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>119063</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="241" name="カギ線コネクタ 240"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="188" idx="3"/>
+          <a:endCxn id="192" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3333750" y="22012275"/>
+          <a:ext cx="8034338" cy="2909888"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="6" name="グループ化 5"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772149" y="838200"/>
+          <a:ext cx="3267076" cy="571500"/>
+          <a:chOff x="5772149" y="838200"/>
+          <a:chExt cx="3267076" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="838200"/>
+            <a:ext cx="3267076" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5867400" y="971550"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Brand</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6905625" y="971550"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>C Hyou</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7953375" y="971550"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>承認申請図</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5838825" y="942975"/>
+            <a:ext cx="1009650" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772149" y="1419225"/>
+          <a:ext cx="5343525" cy="1057275"/>
+          <a:chOff x="5772149" y="1419225"/>
+          <a:chExt cx="5343525" cy="1057275"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="1419225"/>
+            <a:ext cx="5343525" cy="1057275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5867401" y="1552575"/>
+            <a:ext cx="1362074" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Primitive "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7381876" y="1552575"/>
+            <a:ext cx="1343024" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Editing "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8886825" y="1552575"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Brand placement</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5876925" y="1990725"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Character search</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8820149" y="1514475"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="49" name="グループ化 48"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2314575" y="12458700"/>
+          <a:ext cx="2000251" cy="4181475"/>
+          <a:chOff x="2314575" y="12458700"/>
+          <a:chExt cx="2000251" cy="4181475"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="50" name="図 49"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2343150" y="12458700"/>
+            <a:ext cx="1924050" cy="4181475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="正方形/長方形 50"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2314575" y="13668375"/>
+            <a:ext cx="1019175" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3305175" y="12677777"/>
+            <a:ext cx="1009650" cy="219074"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3324226" y="13525500"/>
+            <a:ext cx="990600" cy="1200150"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="54" name="グループ化 53"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772150" y="12496800"/>
+          <a:ext cx="4276725" cy="571500"/>
+          <a:chOff x="5781675" y="8058150"/>
+          <a:chExt cx="4276725" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="正方形/長方形 54"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5781675" y="8058150"/>
+            <a:ext cx="4276725" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="正方形/長方形 55"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5915025" y="8191500"/>
+            <a:ext cx="1600200" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Additional character</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="正方形/長方形 56"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7686675" y="8153400"/>
+            <a:ext cx="1762125" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="正方形/長方形 57"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7753350" y="8191500"/>
+            <a:ext cx="1600200" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Before adding character</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>618877</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76042</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="59" name="グループ化 58"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772150" y="13420725"/>
+          <a:ext cx="1980952" cy="1266667"/>
+          <a:chOff x="5772150" y="13420725"/>
+          <a:chExt cx="1980952" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="60" name="図 59"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="13420725"/>
+            <a:ext cx="1980952" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="正方形/長方形 60"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5781675" y="14297025"/>
+            <a:ext cx="1914525" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>66237</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>66280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="図 62"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8496300" y="13420725"/>
+          <a:ext cx="3504762" cy="3161905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>443527</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="正方形/長方形 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10915650" y="13906501"/>
+          <a:ext cx="776902" cy="295274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>327220</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639175" y="14620876"/>
+          <a:ext cx="2937070" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>②</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>336745</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8648700" y="15478126"/>
+          <a:ext cx="2937070" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>③</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>494810</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9867900" y="16097251"/>
+          <a:ext cx="1875935" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="82" name="グループ化 81"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5781675" y="17011650"/>
+          <a:ext cx="6867525" cy="571500"/>
+          <a:chOff x="5772150" y="2486025"/>
+          <a:chExt cx="6867525" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="正方形/長方形 82"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="2486025"/>
+            <a:ext cx="6867525" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="84" name="正方形/長方形 83"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="2638425"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>First character</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="85" name="正方形/長方形 84"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9010650" y="2590800"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="正方形/長方形 85"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7477127" y="2628900"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>One character</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="正方形/長方形 86"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9077327" y="2628900"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Auto Dimensions</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="正方形/長方形 87"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10687052" y="2638425"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Character</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> "regist"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="89" name="グループ化 88"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2324100" y="17002125"/>
+          <a:ext cx="1990726" cy="4162425"/>
+          <a:chOff x="2324100" y="17002125"/>
+          <a:chExt cx="1990726" cy="4162425"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="90" name="図 89"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2352675" y="17002125"/>
+            <a:ext cx="1914525" cy="4162425"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="正方形/長方形 90"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2324100" y="19859625"/>
+            <a:ext cx="1019175" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="92" name="正方形/長方形 91"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3305176" y="17011650"/>
+            <a:ext cx="1009650" cy="600075"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="93" name="グループ化 92"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5781675" y="17592675"/>
+          <a:ext cx="3267076" cy="571500"/>
+          <a:chOff x="5772149" y="4048125"/>
+          <a:chExt cx="3267076" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="正方形/長方形 93"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="4048125"/>
+            <a:ext cx="3267076" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="95" name="正方形/長方形 94"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="4200525"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Create</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="96" name="正方形/長方形 95"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5829299" y="4162425"/>
+            <a:ext cx="876301" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="正方形/長方形 96"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7115176" y="4200525"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Delete</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="98" name="グループ化 97"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9886950" y="17706975"/>
+          <a:ext cx="3267076" cy="571500"/>
+          <a:chOff x="5772149" y="4048125"/>
+          <a:chExt cx="3267076" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="99" name="正方形/長方形 98"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="4048125"/>
+            <a:ext cx="3267076" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="100" name="正方形/長方形 99"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="4200525"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Create</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="101" name="正方形/長方形 100"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7048499" y="4162425"/>
+            <a:ext cx="876301" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="102" name="正方形/長方形 101"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7115176" y="4200525"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Delete</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>647448</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>76042</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="103" name="グループ化 102"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5762625" y="18421350"/>
+          <a:ext cx="2019048" cy="1266667"/>
+          <a:chOff x="5762625" y="18421350"/>
+          <a:chExt cx="2019048" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="104" name="図 103"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5762625" y="18421350"/>
+            <a:ext cx="2019048" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5819775" y="19297650"/>
+            <a:ext cx="1914525" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>294981</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>76042</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="106" name="グループ化 105"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9877425" y="18421350"/>
+          <a:ext cx="2352381" cy="1266667"/>
+          <a:chOff x="9877425" y="18421350"/>
+          <a:chExt cx="2352381" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="107" name="図 106"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9877425" y="18421350"/>
+            <a:ext cx="2352381" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="108" name="正方形/長方形 107"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10258425" y="19297650"/>
+            <a:ext cx="1914525" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="109" name="グループ化 108"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2314575" y="21516975"/>
+          <a:ext cx="1943100" cy="4152900"/>
+          <a:chOff x="2314575" y="21516975"/>
+          <a:chExt cx="1943100" cy="4152900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="110" name="図 109"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2343150" y="21516975"/>
+            <a:ext cx="1914525" cy="4152900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="111" name="正方形/長方形 110"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2314575" y="24774525"/>
+            <a:ext cx="1019175" cy="295275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="112" name="グループ化 111"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5781675" y="21526500"/>
+          <a:ext cx="6867525" cy="571500"/>
+          <a:chOff x="5772150" y="2486025"/>
+          <a:chExt cx="6867525" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="113" name="正方形/長方形 112"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="2486025"/>
+            <a:ext cx="6867525" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="114" name="正方形/長方形 113"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="2638425"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>First character</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="115" name="正方形/長方形 114"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10601325" y="2600325"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="116" name="正方形/長方形 115"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7477127" y="2628900"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>One character</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="117" name="正方形/長方形 116"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9077327" y="2628900"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Auto Dimensions</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="118" name="正方形/長方形 117"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10687052" y="2638425"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Character</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> "regist"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>494981</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>76042</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="119" name="グループ化 118"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5762625" y="22469475"/>
+          <a:ext cx="2552381" cy="1266667"/>
+          <a:chOff x="5762625" y="22469475"/>
+          <a:chExt cx="2552381" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="120" name="図 119"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5762625" y="22469475"/>
+            <a:ext cx="2552381" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="121" name="正方形/長方形 120"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6343650" y="23345775"/>
+            <a:ext cx="1914525" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="122" name="グループ化 121"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="247650" y="771525"/>
+          <a:ext cx="1981201" cy="6391275"/>
+          <a:chOff x="200024" y="771525"/>
+          <a:chExt cx="1981201" cy="6391275"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="123" name="図 122"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="228600" y="819150"/>
+            <a:ext cx="1924050" cy="6343650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="124" name="正方形/長方形 123"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1209675" y="771525"/>
+            <a:ext cx="971550" cy="314325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="200024" y="4171950"/>
+            <a:ext cx="1038226" cy="314325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="161" name="グループ化 160"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2466975" y="2962275"/>
+          <a:ext cx="2000250" cy="4152900"/>
+          <a:chOff x="2466975" y="2962275"/>
+          <a:chExt cx="2000250" cy="4152900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="133" name="図 132"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2486025" y="2962275"/>
+            <a:ext cx="1905000" cy="4152900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="128" name="正方形/長方形 127"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2466975" y="4980137"/>
+            <a:ext cx="962026" cy="315764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="132" name="正方形/長方形 131"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3457575" y="2981324"/>
+            <a:ext cx="1009650" cy="209551"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="134" name="グループ化 133"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772150" y="3048000"/>
+          <a:ext cx="3267076" cy="571500"/>
+          <a:chOff x="5772149" y="4048125"/>
+          <a:chExt cx="3267076" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="135" name="正方形/長方形 134"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="4048125"/>
+            <a:ext cx="3267076" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="136" name="正方形/長方形 135"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="4200525"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Create</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="137" name="正方形/長方形 136"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5829299" y="4162425"/>
+            <a:ext cx="876301" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="138" name="正方形/長方形 137"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7115176" y="4200525"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Delete</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="147" name="グループ化 146"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772150" y="2476500"/>
+          <a:ext cx="8277225" cy="571500"/>
+          <a:chOff x="5772150" y="2476500"/>
+          <a:chExt cx="8277225" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="140" name="正方形/長方形 139"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="2476500"/>
+            <a:ext cx="8277225" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="141" name="正方形/長方形 140"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="2628900"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Base diameter line</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="142" name="正方形/長方形 141"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10629900" y="2581275"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="143" name="正方形/長方形 142"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7477127" y="2619375"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Base line</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="144" name="正方形/長方形 143"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9077327" y="2619375"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Brand balloon</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="145" name="正方形/長方形 144"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10706102" y="2619375"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Base line</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="146" name="正方形/長方形 145"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12287252" y="2609850"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Arc placement</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>456888</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85567</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="157" name="グループ化 156"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5781675" y="4143375"/>
+          <a:ext cx="2495238" cy="1266667"/>
+          <a:chOff x="5781675" y="4143375"/>
+          <a:chExt cx="2495238" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="148" name="図 147"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5781675" y="4143375"/>
+            <a:ext cx="2495238" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="149" name="正方形/長方形 148"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6296025" y="5029200"/>
+            <a:ext cx="1914525" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="150" name="グループ化 149"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9505950" y="3181350"/>
+          <a:ext cx="3267076" cy="571500"/>
+          <a:chOff x="5772149" y="4048125"/>
+          <a:chExt cx="3267076" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="151" name="正方形/長方形 150"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="4048125"/>
+            <a:ext cx="3267076" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="152" name="正方形/長方形 151"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="4200525"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Create</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="153" name="正方形/長方形 152"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7038974" y="4162425"/>
+            <a:ext cx="876301" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="154" name="正方形/長方形 153"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7115176" y="4200525"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Delete</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>247319</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="155" name="図 154"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9534525" y="4143375"/>
+          <a:ext cx="2647619" cy="1266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="正方形/長方形 155"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10201275" y="5019675"/>
+          <a:ext cx="1914525" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="158" name="図 157"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2476500" y="7486650"/>
+          <a:ext cx="1914525" cy="4133850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>217637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="正方形/長方形 158"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438400" y="8875862"/>
+          <a:ext cx="990600" cy="315764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="正方形/長方形 159"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419475" y="7486650"/>
+          <a:ext cx="1009650" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571087</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95001</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="166" name="グループ化 165"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5086350" y="9144000"/>
+          <a:ext cx="3304762" cy="1990476"/>
+          <a:chOff x="5076825" y="7467600"/>
+          <a:chExt cx="3304762" cy="1990476"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="162" name="図 161"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5076825" y="7467600"/>
+            <a:ext cx="3304762" cy="1990476"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="163" name="正方形/長方形 162"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5086350" y="8267701"/>
+            <a:ext cx="2038350" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="164" name="正方形/長方形 163"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7296149" y="8277226"/>
+            <a:ext cx="819151" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="165" name="正方形/長方形 164"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6477000" y="8991601"/>
+            <a:ext cx="1857376" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>③</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="167" name="グループ化 166"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5086350" y="8058150"/>
+          <a:ext cx="3267076" cy="571500"/>
+          <a:chOff x="5772149" y="4048125"/>
+          <a:chExt cx="3267076" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="168" name="正方形/長方形 167"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="4048125"/>
+            <a:ext cx="3267076" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="169" name="正方形/長方形 168"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="4200525"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Create</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="170" name="正方形/長方形 169"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5829299" y="4162425"/>
+            <a:ext cx="876301" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="171" name="正方形/長方形 170"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7115176" y="4200525"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Delete</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="172" name="グループ化 171"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5086350" y="7486650"/>
+          <a:ext cx="8277225" cy="571500"/>
+          <a:chOff x="5772150" y="2476500"/>
+          <a:chExt cx="8277225" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="173" name="正方形/長方形 172"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="2476500"/>
+            <a:ext cx="8277225" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="174" name="正方形/長方形 173"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="2628900"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Base diameter line</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="175" name="正方形/長方形 174"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9001125" y="2581275"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="176" name="正方形/長方形 175"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7477127" y="2619375"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Base line</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="177" name="正方形/長方形 176"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9077327" y="2619375"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Brand balloon</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="178" name="正方形/長方形 177"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10706102" y="2619375"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Base line</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="179" name="正方形/長方形 178"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12287252" y="2609850"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Arc placement</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="180" name="グループ化 179"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8858250" y="8191500"/>
+          <a:ext cx="3267076" cy="571500"/>
+          <a:chOff x="5772149" y="4048125"/>
+          <a:chExt cx="3267076" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="181" name="正方形/長方形 180"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="4048125"/>
+            <a:ext cx="3267076" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="182" name="正方形/長方形 181"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="4200525"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Create</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="183" name="正方形/長方形 182"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7038974" y="4162425"/>
+            <a:ext cx="876301" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="184" name="正方形/長方形 183"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7115176" y="4200525"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Delete</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504548</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>66517</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="187" name="グループ化 186"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8848725" y="9124950"/>
+          <a:ext cx="2219048" cy="1266667"/>
+          <a:chOff x="8848725" y="9124950"/>
+          <a:chExt cx="2219048" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="185" name="図 184"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8848725" y="9124950"/>
+            <a:ext cx="2219048" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="186" name="正方形/長方形 185"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9124950" y="10039351"/>
+            <a:ext cx="1866900" cy="295274"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16286,7 +23233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C65" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
@@ -16315,8 +23262,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N82" sqref="N82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/外部設計/資料/円弧配列.xlsx
+++ b/外部設計/資料/円弧配列.xlsx
@@ -16017,106 +16017,105 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>255406</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>131318</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="127" name="カギ線コネクタ 126"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="5" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1217431" y="2381250"/>
-          <a:ext cx="6754994" cy="931418"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 14748"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>131318</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="144" name="直線矢印コネクタ 143"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="18" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7981950" y="1885950"/>
-          <a:ext cx="80962" cy="495300"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="グループ化 25"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1217431" y="1885950"/>
+          <a:ext cx="6845481" cy="1426718"/>
+          <a:chOff x="1217431" y="1885950"/>
+          <a:chExt cx="6845481" cy="1426718"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="127" name="カギ線コネクタ 126"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="5" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1217431" y="2381250"/>
+            <a:ext cx="6754994" cy="931418"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 14748"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="144" name="直線矢印コネクタ 143"/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="18" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="7981950" y="1885950"/>
+            <a:ext cx="80962" cy="495300"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -16915,6 +16914,210 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="291" name="グループ化 290"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2438400" y="7486650"/>
+          <a:ext cx="1990725" cy="4133850"/>
+          <a:chOff x="2438400" y="7486650"/>
+          <a:chExt cx="1990725" cy="4133850"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="158" name="図 157"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2476500" y="7486650"/>
+            <a:ext cx="1914525" cy="4133850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="159" name="正方形/長方形 158"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2438400" y="8875862"/>
+            <a:ext cx="990600" cy="315764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="160" name="正方形/長方形 159"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3419475" y="7486650"/>
+            <a:ext cx="1009650" cy="619125"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="277" name="正方形/長方形 276"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3438525" y="8256737"/>
+            <a:ext cx="990600" cy="315764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -17547,470 +17750,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647448</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>76042</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="49" name="グループ化 48"/>
+        <xdr:cNvPr id="24" name="グループ化 23"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2314575" y="12458700"/>
-          <a:ext cx="2000251" cy="4181475"/>
-          <a:chOff x="2314575" y="12458700"/>
-          <a:chExt cx="2000251" cy="4181475"/>
+          <a:off x="5076825" y="17468850"/>
+          <a:ext cx="2019048" cy="1266667"/>
+          <a:chOff x="5076825" y="17468850"/>
+          <a:chExt cx="2019048" cy="1266667"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="50" name="図 49"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2343150" y="12458700"/>
-            <a:ext cx="1924050" cy="4181475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="51" name="正方形/長方形 50"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2314575" y="13668375"/>
-            <a:ext cx="1019175" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="52" name="正方形/長方形 51"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3305175" y="12677777"/>
-            <a:ext cx="1009650" cy="219074"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="53" name="正方形/長方形 52"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3324226" y="13525500"/>
-            <a:ext cx="990600" cy="1200150"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="54" name="グループ化 53"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5772150" y="12496800"/>
-          <a:ext cx="4276725" cy="571500"/>
-          <a:chOff x="5781675" y="8058150"/>
-          <a:chExt cx="4276725" cy="571500"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="55" name="正方形/長方形 54"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5781675" y="8058150"/>
-            <a:ext cx="4276725" cy="571500"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="56" name="正方形/長方形 55"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5915025" y="8191500"/>
-            <a:ext cx="1600200" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Additional character</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="57" name="正方形/長方形 56"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7686675" y="8153400"/>
-            <a:ext cx="1762125" cy="371475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="58" name="正方形/長方形 57"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7753350" y="8191500"/>
-            <a:ext cx="1600200" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Before adding character</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>618877</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>76042</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="59" name="グループ化 58"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5772150" y="13420725"/>
-          <a:ext cx="1980952" cy="1266667"/>
-          <a:chOff x="5772150" y="13420725"/>
-          <a:chExt cx="1980952" cy="1266667"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="60" name="図 59"/>
+          <xdr:cNvPr id="23" name="図 22"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -18023,8 +17789,8 @@
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5772150" y="13420725"/>
-            <a:ext cx="1980952" cy="1266667"/>
+            <a:off x="5076825" y="17468850"/>
+            <a:ext cx="2019048" cy="1266667"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -18033,2080 +17799,13 @@
       </xdr:pic>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="61" name="正方形/長方形 60"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5781675" y="14297025"/>
-            <a:ext cx="1914525" cy="371475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>①</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>66237</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>66280</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="図 62"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8496300" y="13420725"/>
-          <a:ext cx="3504762" cy="3161905"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>443527</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="正方形/長方形 63"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10915650" y="13906501"/>
-          <a:ext cx="776902" cy="295274"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>①</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>327220</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="正方形/長方形 64"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8639175" y="14620876"/>
-          <a:ext cx="2937070" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>②</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>336745</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>219076</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="正方形/長方形 65"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8648700" y="15478126"/>
-          <a:ext cx="2937070" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>③</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>494810</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9867900" y="16097251"/>
-          <a:ext cx="1875935" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>④</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="82" name="グループ化 81"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5781675" y="17011650"/>
-          <a:ext cx="6867525" cy="571500"/>
-          <a:chOff x="5772150" y="2486025"/>
-          <a:chExt cx="6867525" cy="571500"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="83" name="正方形/長方形 82"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5772150" y="2486025"/>
-            <a:ext cx="6867525" cy="571500"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="84" name="正方形/長方形 83"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5886451" y="2638425"/>
-            <a:ext cx="1352549" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>First character</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="正方形/長方形 84"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9010650" y="2590800"/>
-            <a:ext cx="1514475" cy="371475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="86" name="正方形/長方形 85"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7477127" y="2628900"/>
-            <a:ext cx="1352549" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>One character</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="正方形/長方形 86"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9077327" y="2628900"/>
-            <a:ext cx="1352549" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Auto Dimensions</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="88" name="正方形/長方形 87"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10687052" y="2638425"/>
-            <a:ext cx="1352549" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Character</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> "regist"</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>609601</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="89" name="グループ化 88"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2324100" y="17002125"/>
-          <a:ext cx="1990726" cy="4162425"/>
-          <a:chOff x="2324100" y="17002125"/>
-          <a:chExt cx="1990726" cy="4162425"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="90" name="図 89"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2352675" y="17002125"/>
-            <a:ext cx="1914525" cy="4162425"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="91" name="正方形/長方形 90"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2324100" y="19859625"/>
-            <a:ext cx="1019175" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="92" name="正方形/長方形 91"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3305176" y="17011650"/>
-            <a:ext cx="1009650" cy="600075"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>542926</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="93" name="グループ化 92"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5781675" y="17592675"/>
-          <a:ext cx="3267076" cy="571500"/>
-          <a:chOff x="5772149" y="4048125"/>
-          <a:chExt cx="3267076" cy="571500"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="正方形/長方形 93"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5772149" y="4048125"/>
-            <a:ext cx="3267076" cy="571500"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="95" name="正方形/長方形 94"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5886451" y="4200525"/>
-            <a:ext cx="723900" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Create</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="96" name="正方形/長方形 95"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5829299" y="4162425"/>
-            <a:ext cx="876301" cy="371475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="97" name="正方形/長方形 96"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7115176" y="4200525"/>
-            <a:ext cx="723900" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Delete</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>533401</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="98" name="グループ化 97"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9886950" y="17706975"/>
-          <a:ext cx="3267076" cy="571500"/>
-          <a:chOff x="5772149" y="4048125"/>
-          <a:chExt cx="3267076" cy="571500"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="99" name="正方形/長方形 98"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5772149" y="4048125"/>
-            <a:ext cx="3267076" cy="571500"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="100" name="正方形/長方形 99"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5886451" y="4200525"/>
-            <a:ext cx="723900" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Create</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="101" name="正方形/長方形 100"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7048499" y="4162425"/>
-            <a:ext cx="876301" cy="371475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="102" name="正方形/長方形 101"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7115176" y="4200525"/>
-            <a:ext cx="723900" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Delete</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>647448</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>76042</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="103" name="グループ化 102"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5762625" y="18421350"/>
-          <a:ext cx="2019048" cy="1266667"/>
-          <a:chOff x="5762625" y="18421350"/>
-          <a:chExt cx="2019048" cy="1266667"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="104" name="図 103"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5762625" y="18421350"/>
-            <a:ext cx="2019048" cy="1266667"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="105" name="正方形/長方形 104"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5819775" y="19297650"/>
-            <a:ext cx="1914525" cy="371475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>①</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>294981</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>76042</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="106" name="グループ化 105"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="9877425" y="18421350"/>
-          <a:ext cx="2352381" cy="1266667"/>
-          <a:chOff x="9877425" y="18421350"/>
-          <a:chExt cx="2352381" cy="1266667"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="107" name="図 106"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9877425" y="18421350"/>
-            <a:ext cx="2352381" cy="1266667"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="108" name="正方形/長方形 107"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10258425" y="19297650"/>
-            <a:ext cx="1914525" cy="371475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>①</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>107</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="109" name="グループ化 108"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2314575" y="21516975"/>
-          <a:ext cx="1943100" cy="4152900"/>
-          <a:chOff x="2314575" y="21516975"/>
-          <a:chExt cx="1943100" cy="4152900"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="110" name="図 109"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2343150" y="21516975"/>
-            <a:ext cx="1914525" cy="4152900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="111" name="正方形/長方形 110"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2314575" y="24774525"/>
-            <a:ext cx="1019175" cy="295275"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="112" name="グループ化 111"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5781675" y="21526500"/>
-          <a:ext cx="6867525" cy="571500"/>
-          <a:chOff x="5772150" y="2486025"/>
-          <a:chExt cx="6867525" cy="571500"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="113" name="正方形/長方形 112"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5772150" y="2486025"/>
-            <a:ext cx="6867525" cy="571500"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="114" name="正方形/長方形 113"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5886451" y="2638425"/>
-            <a:ext cx="1352549" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>First character</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="115" name="正方形/長方形 114"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10601325" y="2600325"/>
-            <a:ext cx="1514475" cy="371475"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="116" name="正方形/長方形 115"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7477127" y="2628900"/>
-            <a:ext cx="1352549" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>One character</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="117" name="正方形/長方形 116"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9077327" y="2628900"/>
-            <a:ext cx="1352549" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Auto Dimensions</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="118" name="正方形/長方形 117"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="10687052" y="2638425"/>
-            <a:ext cx="1352549" cy="285750"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="12700">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Character</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> "regist"</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>494981</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>76042</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="119" name="グループ化 118"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="5762625" y="22469475"/>
-          <a:ext cx="2552381" cy="1266667"/>
-          <a:chOff x="5762625" y="22469475"/>
-          <a:chExt cx="2552381" cy="1266667"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="120" name="図 119"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5762625" y="22469475"/>
-            <a:ext cx="2552381" cy="1266667"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="121" name="正方形/長方形 120"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6343650" y="23345775"/>
-            <a:ext cx="1914525" cy="371475"/>
+          <xdr:cNvPr id="64" name="正方形/長方形 63"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5181599" y="18383251"/>
+            <a:ext cx="1838325" cy="295274"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -20187,7 +17886,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
             <a:extLst>
               <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
                 <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -20273,165 +17972,6 @@
           <a:xfrm>
             <a:off x="200024" y="4171950"/>
             <a:ext cx="1038226" cy="314325"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="161" name="グループ化 160"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="2466975" y="2962275"/>
-          <a:ext cx="2000250" cy="4152900"/>
-          <a:chOff x="2466975" y="2962275"/>
-          <a:chExt cx="2000250" cy="4152900"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="133" name="図 132"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:srcRect/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="2486025" y="2962275"/>
-            <a:ext cx="1905000" cy="4152900"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:extLst>
-            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a:solidFill>
-                  <a:srgbClr val="FFFFFF"/>
-                </a:solidFill>
-              </a14:hiddenFill>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="128" name="正方形/長方形 127"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2466975" y="4980137"/>
-            <a:ext cx="962026" cy="315764"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="132" name="正方形/長方形 131"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3457575" y="2981324"/>
-            <a:ext cx="1009650" cy="209551"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -21142,7 +18682,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -21466,7 +19006,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -21550,224 +19090,49 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="158" name="図 157"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2476500" y="7486650"/>
-          <a:ext cx="1914525" cy="4133850"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>217637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="159" name="正方形/長方形 158"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2438400" y="8875862"/>
-          <a:ext cx="990600" cy="315764"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="160" name="正方形/長方形 159"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3419475" y="7486650"/>
-          <a:ext cx="1009650" cy="619125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>571087</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66408</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>95001</xdr:rowOff>
+      <xdr:rowOff>9286</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="166" name="グループ化 165"/>
+        <xdr:cNvPr id="3" name="グループ化 2"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5086350" y="9144000"/>
-          <a:ext cx="3304762" cy="1990476"/>
-          <a:chOff x="5076825" y="7467600"/>
-          <a:chExt cx="3304762" cy="1990476"/>
+          <a:off x="5067300" y="9134475"/>
+          <a:ext cx="2133333" cy="1914286"/>
+          <a:chOff x="5067300" y="9134475"/>
+          <a:chExt cx="2133333" cy="1914286"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="162" name="図 161"/>
+          <xdr:cNvPr id="2" name="図 1"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
         </xdr:blipFill>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5076825" y="7467600"/>
-            <a:ext cx="3304762" cy="1990476"/>
+            <a:off x="5067300" y="9134475"/>
+            <a:ext cx="2133333" cy="1914286"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -21781,8 +19146,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="5086350" y="8267701"/>
-            <a:ext cx="2038350" cy="304800"/>
+            <a:off x="6353175" y="9601201"/>
+            <a:ext cx="581025" cy="304800"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -21833,8 +19198,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="7296149" y="8277226"/>
-            <a:ext cx="819151" cy="304800"/>
+            <a:off x="6362700" y="9934576"/>
+            <a:ext cx="581026" cy="304800"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -21885,7 +19250,7 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="6477000" y="8991601"/>
+            <a:off x="5181600" y="10534651"/>
             <a:ext cx="1857376" cy="304800"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
@@ -22572,16 +19937,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
+      <xdr:colOff>542926</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -22590,7 +19955,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8858250" y="8191500"/>
+          <a:off x="9210675" y="8210550"/>
           <a:ext cx="3267076" cy="571500"/>
           <a:chOff x="5772149" y="4048125"/>
           <a:chExt cx="3267076" cy="571500"/>
@@ -22805,16 +20170,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>504548</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171173</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>66517</xdr:rowOff>
+      <xdr:rowOff>85567</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -22823,7 +20188,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8848725" y="9124950"/>
+          <a:off x="9201150" y="9144000"/>
           <a:ext cx="2219048" cy="1266667"/>
           <a:chOff x="8848725" y="9124950"/>
           <a:chExt cx="2219048" cy="1266667"/>
@@ -22837,7 +20202,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -22905,6 +20270,4008 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="166" name="グループ化 165"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5067300" y="12011025"/>
+          <a:ext cx="8277225" cy="571500"/>
+          <a:chOff x="5772150" y="2476500"/>
+          <a:chExt cx="8277225" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="188" name="正方形/長方形 187"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="2476500"/>
+            <a:ext cx="8277225" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="189" name="正方形/長方形 188"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="2628900"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Base diameter line</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="190" name="正方形/長方形 189"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12211050" y="2571750"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="191" name="正方形/長方形 190"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7477127" y="2619375"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Base line</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="192" name="正方形/長方形 191"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9077327" y="2619375"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Brand balloon</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="193" name="正方形/長方形 192"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10706102" y="2619375"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Base line</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="194" name="正方形/長方形 193"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12287252" y="2609850"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Arc placement</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="グループ化 21"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2438400" y="11991975"/>
+          <a:ext cx="1990725" cy="4162425"/>
+          <a:chOff x="2438400" y="11991975"/>
+          <a:chExt cx="1990725" cy="4162425"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="139" name="図 138"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2486025" y="12001500"/>
+            <a:ext cx="1914525" cy="4152900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="195" name="正方形/長方形 194"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2438400" y="14419412"/>
+            <a:ext cx="990600" cy="315764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="196" name="正方形/長方形 195"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3438525" y="11991975"/>
+            <a:ext cx="990600" cy="257176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552210</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142717</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="グループ化 19"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5076825" y="13249275"/>
+          <a:ext cx="1923810" cy="1266667"/>
+          <a:chOff x="5076825" y="13420725"/>
+          <a:chExt cx="1923810" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="19" name="図 18"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5076825" y="13420725"/>
+            <a:ext cx="1923810" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="205" name="正方形/長方形 204"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5086349" y="14335126"/>
+            <a:ext cx="1838325" cy="295274"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="グループ化 20"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5067300" y="12592050"/>
+          <a:ext cx="6667499" cy="571500"/>
+          <a:chOff x="5067300" y="12592050"/>
+          <a:chExt cx="6667499" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="198" name="正方形/長方形 197"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5067300" y="12592050"/>
+            <a:ext cx="6667499" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="199" name="正方形/長方形 198"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5181601" y="12744450"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Target "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="200" name="正方形/長方形 199"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5114925" y="12706350"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="201" name="正方形/長方形 200"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6772277" y="12734925"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Radial direction</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="202" name="正方形/長方形 201"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8372477" y="12734925"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DIA direction</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="206" name="正方形/長方形 205"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10010777" y="12734925"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Create</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="207" name="グループ化 206"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2447925" y="16535400"/>
+          <a:ext cx="1990725" cy="4152900"/>
+          <a:chOff x="2438400" y="12001500"/>
+          <a:chExt cx="1990725" cy="4152900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="208" name="図 207"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2486025" y="12001500"/>
+            <a:ext cx="1914525" cy="4152900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="209" name="正方形/長方形 208"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2438400" y="14419412"/>
+            <a:ext cx="990600" cy="315764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="210" name="正方形/長方形 209"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3438525" y="13439775"/>
+            <a:ext cx="990600" cy="257176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="211" name="グループ化 210"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5076825" y="16535400"/>
+          <a:ext cx="6667499" cy="571500"/>
+          <a:chOff x="5067300" y="12592050"/>
+          <a:chExt cx="6667499" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="212" name="正方形/長方形 211"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5067300" y="12592050"/>
+            <a:ext cx="6667499" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="213" name="正方形/長方形 212"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5181601" y="12744450"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Target "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="214" name="正方形/長方形 213"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6705600" y="12696825"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="215" name="正方形/長方形 214"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6772277" y="12734925"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Radial direction</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="216" name="正方形/長方形 215"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8372477" y="12734925"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DIA direction</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="217" name="正方形/長方形 216"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10010777" y="12734925"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Create</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="218" name="グループ化 217"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2438400" y="21040725"/>
+          <a:ext cx="1990725" cy="4152900"/>
+          <a:chOff x="2438400" y="12001500"/>
+          <a:chExt cx="1990725" cy="4152900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="219" name="図 218"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2486025" y="12001500"/>
+            <a:ext cx="1914525" cy="4152900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="220" name="正方形/長方形 219"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2438400" y="14419412"/>
+            <a:ext cx="990600" cy="315764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="221" name="正方形/長方形 220"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3438525" y="13639800"/>
+            <a:ext cx="990600" cy="257176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="222" name="グループ化 221"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5086350" y="21050250"/>
+          <a:ext cx="6667499" cy="571500"/>
+          <a:chOff x="5067300" y="12592050"/>
+          <a:chExt cx="6667499" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="223" name="正方形/長方形 222"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5067300" y="12592050"/>
+            <a:ext cx="6667499" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="224" name="正方形/長方形 223"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5181601" y="12744450"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Target "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="225" name="正方形/長方形 224"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8305800" y="12696825"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="226" name="正方形/長方形 225"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6772277" y="12734925"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Radial direction</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="227" name="正方形/長方形 226"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8372477" y="12734925"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DIA direction</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="228" name="正方形/長方形 227"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10010777" y="12734925"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Create</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552210</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>76042</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="グループ化 25"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5076825" y="21993225"/>
+          <a:ext cx="1923810" cy="1266667"/>
+          <a:chOff x="5076825" y="21993225"/>
+          <a:chExt cx="1923810" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="25" name="図 24"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5076825" y="21993225"/>
+            <a:ext cx="1923810" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="229" name="正方形/長方形 228"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5076825" y="22907626"/>
+            <a:ext cx="1895475" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="230" name="グループ化 229"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2438400" y="25565100"/>
+          <a:ext cx="1990725" cy="4152900"/>
+          <a:chOff x="2438400" y="12001500"/>
+          <a:chExt cx="1990725" cy="4152900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="231" name="図 230"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2486025" y="12001500"/>
+            <a:ext cx="1914525" cy="4152900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="232" name="正方形/長方形 231"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2438400" y="14419412"/>
+            <a:ext cx="990600" cy="315764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="233" name="正方形/長方形 232"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3438525" y="14049375"/>
+            <a:ext cx="990600" cy="257176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="234" name="グループ化 233"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5086350" y="25574625"/>
+          <a:ext cx="6667499" cy="571500"/>
+          <a:chOff x="5067300" y="12592050"/>
+          <a:chExt cx="6667499" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="235" name="正方形/長方形 234"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5067300" y="12592050"/>
+            <a:ext cx="6667499" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="236" name="正方形/長方形 235"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5181601" y="12744450"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Target "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="237" name="正方形/長方形 236"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9944100" y="12696825"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="238" name="正方形/長方形 237"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6772277" y="12734925"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Radial direction</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="239" name="正方形/長方形 238"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8372477" y="12734925"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>DIA direction</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="240" name="正方形/長方形 239"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10010777" y="12734925"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Create</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>513686</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>237738</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="28" name="グループ化 27"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5076825" y="26517600"/>
+          <a:ext cx="5314286" cy="3095238"/>
+          <a:chOff x="5076825" y="26517600"/>
+          <a:chExt cx="5314286" cy="3095238"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="27" name="図 26"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5076825" y="26517600"/>
+            <a:ext cx="5314286" cy="3095238"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="正方形/長方形 64"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6896100" y="28270201"/>
+            <a:ext cx="609600" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="正方形/長方形 65"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8953500" y="28279726"/>
+            <a:ext cx="619125" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>③</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8305800" y="29079826"/>
+            <a:ext cx="1875935" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>④</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="241" name="正方形/長方形 240"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5219699" y="27374851"/>
+            <a:ext cx="4752975" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="242" name="直線矢印コネクタ 241"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="124" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228851" y="928688"/>
+          <a:ext cx="3800474" cy="204787"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>195263</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="79" name="グループ化 78"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1285876" y="1885950"/>
+          <a:ext cx="8291511" cy="2443163"/>
+          <a:chOff x="1285876" y="1885950"/>
+          <a:chExt cx="8291511" cy="2443163"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="245" name="カギ線コネクタ 244"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="125" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1285876" y="2343150"/>
+            <a:ext cx="8096249" cy="1985963"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 13059"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="246" name="直線矢印コネクタ 245"/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="18" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9382125" y="1885950"/>
+            <a:ext cx="195262" cy="447675"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="40" name="グループ化 39"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2466975" y="2962275"/>
+          <a:ext cx="2000250" cy="4152900"/>
+          <a:chOff x="2466975" y="2962275"/>
+          <a:chExt cx="2000250" cy="4152900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="133" name="図 132"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2486025" y="2962275"/>
+            <a:ext cx="1905000" cy="4152900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="128" name="正方形/長方形 127"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2466975" y="4980137"/>
+            <a:ext cx="962026" cy="315764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="132" name="正方形/長方形 131"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3457575" y="2981324"/>
+            <a:ext cx="1009650" cy="209551"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="247" name="正方形/長方形 246"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3457575" y="3390899"/>
+            <a:ext cx="1009650" cy="209551"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47629</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="248" name="カギ線コネクタ 247"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3438525" y="3000375"/>
+          <a:ext cx="7410450" cy="2133604"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 28663"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="249" name="直線矢印コネクタ 248"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="10829925" y="2847975"/>
+          <a:ext cx="190500" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="250" name="直線矢印コネクタ 249"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="132" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4467225" y="3086100"/>
+          <a:ext cx="1543050" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647701</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="251" name="カギ線コネクタ 250"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="247" idx="3"/>
+          <a:endCxn id="153" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4467225" y="3495675"/>
+          <a:ext cx="6743701" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 6356"/>
+            <a:gd name="adj2" fmla="val 233333"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="252" name="直線矢印コネクタ 251"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4410075" y="7620001"/>
+          <a:ext cx="876300" cy="742949"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>566738</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>137394</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="253" name="カギ線コネクタ 252"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="159" idx="3"/>
+          <a:endCxn id="175" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3429000" y="7962900"/>
+          <a:ext cx="5643563" cy="1070844"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>90488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="263" name="直線矢印コネクタ 262"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="160" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4429125" y="7796213"/>
+          <a:ext cx="1895475" cy="1804987"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="268" name="直線矢印コネクタ 267"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="164" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="7962900"/>
+          <a:ext cx="1962150" cy="2124076"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>232644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>352427</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="279" name="カギ線コネクタ 278"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="277" idx="3"/>
+          <a:endCxn id="184" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4429125" y="8414619"/>
+          <a:ext cx="6486527" cy="234081"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4626"/>
+            <a:gd name="adj2" fmla="val 197659"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="287" name="直線矢印コネクタ 286"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="196" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4429125" y="12120563"/>
+          <a:ext cx="876300" cy="766762"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>204069</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="290" name="カギ線コネクタ 289"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="195" idx="3"/>
+          <a:endCxn id="190" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3429000" y="12477750"/>
+          <a:ext cx="8834438" cy="2099544"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323852</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="299" name="カギ線コネクタ 298"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="215" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4400550" y="16678275"/>
+          <a:ext cx="3057527" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 16200"/>
+            <a:gd name="adj2" fmla="val 132654"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>576263</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="309" name="カギ線コネクタ 308"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="221" idx="3"/>
+          <a:endCxn id="225" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4429125" y="21155025"/>
+          <a:ext cx="4652963" cy="1652588"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 6858"/>
+            <a:gd name="adj2" fmla="val 113833"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142877</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="317" name="カギ線コネクタ 316"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="233" idx="3"/>
+          <a:endCxn id="240" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4429125" y="25717500"/>
+          <a:ext cx="6276977" cy="2024063"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5008"/>
+            <a:gd name="adj2" fmla="val 111294"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -23175,7 +24542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -23204,7 +24571,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="D10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
@@ -23262,7 +24629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
@@ -23291,8 +24658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R48" sqref="R48"/>
+    <sheetView tabSelected="1" topLeftCell="B55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/外部設計/資料/円弧配列.xlsx
+++ b/外部設計/資料/円弧配列.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10035" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10035" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="基準線" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="刻印文字登録" sheetId="3" r:id="rId3"/>
     <sheet name="編集文字登録" sheetId="4" r:id="rId4"/>
     <sheet name="ラベリング" sheetId="5" r:id="rId5"/>
+    <sheet name="グルーピング" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
   <si>
     <t>＜Advance CAD＞</t>
     <phoneticPr fontId="1"/>
@@ -18985,7 +18986,7 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
@@ -18998,96 +18999,95 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>85567</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="155" name="図 154"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="グループ化 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="9534525" y="4143375"/>
           <a:ext cx="2647619" cy="1266667"/>
+          <a:chOff x="9534525" y="4143375"/>
+          <a:chExt cx="2647619" cy="1266667"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="正方形/長方形 155"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10201275" y="5019675"/>
-          <a:ext cx="1914525" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>①</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="155" name="図 154"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9534525" y="4143375"/>
+            <a:ext cx="2647619" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="156" name="正方形/長方形 155"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10201275" y="5019675"/>
+            <a:ext cx="1914525" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -19105,7 +19105,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="グループ化 2"/>
+        <xdr:cNvPr id="29" name="グループ化 28"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -19118,7 +19118,7 @@
       </xdr:grpSpPr>
       <xdr:pic>
         <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="図 1"/>
+          <xdr:cNvPr id="5" name="図 4"/>
           <xdr:cNvPicPr>
             <a:picLocks noChangeAspect="1"/>
           </xdr:cNvPicPr>
@@ -24277,6 +24277,6174 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="グループ化 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772149" y="838200"/>
+          <a:ext cx="3267076" cy="571500"/>
+          <a:chOff x="5772149" y="838200"/>
+          <a:chExt cx="3267076" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="838200"/>
+            <a:ext cx="3267076" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5867400" y="971550"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Brand</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6905625" y="971550"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>C Hyou</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7953375" y="971550"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>承認申請図</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5838825" y="942975"/>
+            <a:ext cx="1009650" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="グループ化 12"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772149" y="1419225"/>
+          <a:ext cx="5343525" cy="1057275"/>
+          <a:chOff x="5772149" y="1419225"/>
+          <a:chExt cx="5343525" cy="1057275"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="1419225"/>
+            <a:ext cx="5343525" cy="1057275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5867401" y="1552575"/>
+            <a:ext cx="1362074" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Primitive "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7381876" y="1552575"/>
+            <a:ext cx="1343024" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Editing "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8886825" y="1552575"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Brand placement</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5876925" y="1990725"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Character search</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8820149" y="1514475"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="グループ化 22"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="247650" y="771525"/>
+          <a:ext cx="1981201" cy="6391275"/>
+          <a:chOff x="200024" y="771525"/>
+          <a:chExt cx="1981201" cy="6391275"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="図 23"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="228600" y="819150"/>
+            <a:ext cx="1924050" cy="6343650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1209675" y="771525"/>
+            <a:ext cx="971550" cy="314325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="200024" y="4171950"/>
+            <a:ext cx="1038226" cy="314325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552210</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85567</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="219" name="グループ化 218"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5762625" y="5095875"/>
+          <a:ext cx="1923810" cy="1266667"/>
+          <a:chOff x="5762625" y="5095875"/>
+          <a:chExt cx="1923810" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="192" name="図 191"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5762625" y="5095875"/>
+            <a:ext cx="1923810" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="49" name="正方形/長方形 48"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5781675" y="5981700"/>
+            <a:ext cx="1857375" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="55" name="グループ化 54"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7829550" y="21850350"/>
+          <a:ext cx="3267076" cy="571500"/>
+          <a:chOff x="5772149" y="4048125"/>
+          <a:chExt cx="3267076" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="正方形/長方形 55"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="4048125"/>
+            <a:ext cx="3267076" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="正方形/長方形 56"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="4200525"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Create</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="正方形/長方形 57"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5829299" y="4162425"/>
+            <a:ext cx="876301" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="正方形/長方形 58"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7115176" y="4200525"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Delete</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="68" name="グループ化 67"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11268075" y="21993225"/>
+          <a:ext cx="3267076" cy="571500"/>
+          <a:chOff x="5772149" y="4048125"/>
+          <a:chExt cx="3267076" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="69" name="正方形/長方形 68"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="4048125"/>
+            <a:ext cx="3267076" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="70" name="正方形/長方形 69"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="4200525"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Create</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="71" name="正方形/長方形 70"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7038974" y="4162425"/>
+            <a:ext cx="876301" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="72" name="正方形/長方形 71"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7115176" y="4200525"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Delete</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="140" name="直線矢印コネクタ 139"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228851" y="928688"/>
+          <a:ext cx="3800474" cy="204787"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>195263</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="141" name="グループ化 140"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1285876" y="1885950"/>
+          <a:ext cx="8291511" cy="2443163"/>
+          <a:chOff x="1285876" y="1885950"/>
+          <a:chExt cx="8291511" cy="2443163"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="142" name="カギ線コネクタ 141"/>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="26" idx="3"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="1285876" y="2343150"/>
+            <a:ext cx="8096249" cy="1985963"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 13059"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="143" name="直線矢印コネクタ 142"/>
+          <xdr:cNvCxnSpPr>
+            <a:endCxn id="19" idx="2"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9382125" y="1885950"/>
+            <a:ext cx="195262" cy="447675"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="191" name="グループ化 190"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2476500" y="2933700"/>
+          <a:ext cx="1990725" cy="4133850"/>
+          <a:chOff x="2476500" y="2933700"/>
+          <a:chExt cx="1990725" cy="4133850"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="163" name="図 162"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2514600" y="2933700"/>
+            <a:ext cx="1885950" cy="4133850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="146" name="正方形/長方形 145"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2476500" y="4742012"/>
+            <a:ext cx="962026" cy="315764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="148" name="正方形/長方形 147"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3457575" y="3362324"/>
+            <a:ext cx="1009650" cy="209551"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>381002</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="149" name="カギ線コネクタ 148"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="148" idx="3"/>
+          <a:endCxn id="168" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4467225" y="3467100"/>
+          <a:ext cx="3733802" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11352"/>
+            <a:gd name="adj2" fmla="val 272727"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="158" name="直線矢印コネクタ 157"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="214" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4448175" y="7572375"/>
+          <a:ext cx="1581150" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="170" name="グループ化 169"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772151" y="2476500"/>
+          <a:ext cx="6705600" cy="981076"/>
+          <a:chOff x="5772151" y="2476500"/>
+          <a:chExt cx="6705600" cy="981076"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772151" y="2476500"/>
+            <a:ext cx="6705600" cy="981076"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="2628900"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Base diameter line</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10629900" y="2581275"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7477127" y="2619375"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Baseline</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9077327" y="2619375"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Brand balloon</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10706102" y="2619375"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Grouping</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7477127" y="3028950"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Arc placement</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="165" name="正方形/長方形 164"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5876927" y="3028950"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Base  line</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="211" name="グループ化 210"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2466975" y="7258050"/>
+          <a:ext cx="1981200" cy="4133850"/>
+          <a:chOff x="2476500" y="2933700"/>
+          <a:chExt cx="1981200" cy="4133850"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="212" name="図 211"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2514600" y="2933700"/>
+            <a:ext cx="1885950" cy="4133850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="213" name="正方形/長方形 212"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2476500" y="4742012"/>
+            <a:ext cx="962026" cy="315764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="214" name="正方形/長方形 213"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3448050" y="3143249"/>
+            <a:ext cx="1009650" cy="209551"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133073</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85567</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="233" name="グループ化 232"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5734050" y="8905875"/>
+          <a:ext cx="2219048" cy="1266667"/>
+          <a:chOff x="5753100" y="7953375"/>
+          <a:chExt cx="2219048" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="215" name="図 214"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5753100" y="7953375"/>
+            <a:ext cx="2219048" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="218" name="正方形/長方形 217"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6019800" y="8839200"/>
+            <a:ext cx="1857375" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="227" name="グループ化 226"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2466975" y="11763375"/>
+          <a:ext cx="1981200" cy="4133850"/>
+          <a:chOff x="2476500" y="2933700"/>
+          <a:chExt cx="1981200" cy="4133850"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="228" name="図 227"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2514600" y="2933700"/>
+            <a:ext cx="1885950" cy="4133850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="229" name="正方形/長方形 228"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2476500" y="4742012"/>
+            <a:ext cx="962026" cy="315764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="230" name="正方形/長方形 229"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3448050" y="5400674"/>
+            <a:ext cx="1009650" cy="209551"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="234" name="カギ線コネクタ 233"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="230" idx="3"/>
+          <a:endCxn id="222" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4448175" y="11887200"/>
+          <a:ext cx="5338763" cy="2447925"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 12043"/>
+            <a:gd name="adj2" fmla="val 109339"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="244" name="グループ化 243"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2447925" y="20821650"/>
+          <a:ext cx="1990725" cy="4133850"/>
+          <a:chOff x="2476500" y="2933700"/>
+          <a:chExt cx="1990725" cy="4133850"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="245" name="図 244"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2514600" y="2933700"/>
+            <a:ext cx="1885950" cy="4133850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="246" name="正方形/長方形 245"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2476500" y="4742012"/>
+            <a:ext cx="962026" cy="315764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="247" name="正方形/長方形 246"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3457575" y="5810249"/>
+            <a:ext cx="1009650" cy="209551"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>37668</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>237792</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="258" name="グループ化 257"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772150" y="13134975"/>
+          <a:ext cx="3457143" cy="2666667"/>
+          <a:chOff x="5772150" y="12477750"/>
+          <a:chExt cx="3457143" cy="2666667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="255" name="図 254"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="12477750"/>
+            <a:ext cx="3457143" cy="2666667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="137" name="正方形/長方形 136"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6543675" y="13925551"/>
+            <a:ext cx="762000" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>③</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="138" name="正方形/長方形 137"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7153275" y="14687551"/>
+            <a:ext cx="1875935" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>⑤</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="139" name="正方形/長方形 138"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8096250" y="13020676"/>
+            <a:ext cx="733425" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="256" name="正方形/長方形 255"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8096250" y="13354051"/>
+            <a:ext cx="733425" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="257" name="正方形/長方形 256"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7934325" y="13925551"/>
+            <a:ext cx="762000" cy="304800"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>④</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>647448</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>66517</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="259" name="グループ化 258"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7820025" y="22936200"/>
+          <a:ext cx="2019048" cy="1266667"/>
+          <a:chOff x="5762625" y="18421350"/>
+          <a:chExt cx="2019048" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="260" name="図 259"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5762625" y="18421350"/>
+            <a:ext cx="2019048" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="261" name="正方形/長方形 260"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5819775" y="19297650"/>
+            <a:ext cx="1914525" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304506</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>76042</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="336" name="グループ化 335"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11258550" y="22945725"/>
+          <a:ext cx="2352381" cy="1266667"/>
+          <a:chOff x="11258550" y="22945725"/>
+          <a:chExt cx="2352381" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="263" name="図 262"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11258550" y="22945725"/>
+            <a:ext cx="2352381" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="264" name="正方形/長方形 263"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11639550" y="23822025"/>
+            <a:ext cx="1914525" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="266" name="グループ化 265"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772150" y="11772900"/>
+          <a:ext cx="6705600" cy="1038226"/>
+          <a:chOff x="5772150" y="11772900"/>
+          <a:chExt cx="6705600" cy="1038226"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="221" name="正方形/長方形 220"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="11772900"/>
+            <a:ext cx="6705600" cy="1038226"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="222" name="正方形/長方形 221"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9029700" y="11887200"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="223" name="正方形/長方形 222"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5934077" y="11915775"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Base editing "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="224" name="正方形/長方形 223"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7524752" y="11915775"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>"Add" editing "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="225" name="正方形/長方形 224"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9096377" y="11915775"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Relative position</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="226" name="正方形/長方形 225"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10687052" y="11915775"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Auto Dimensions</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="265" name="正方形/長方形 264"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5934077" y="12353925"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Released</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="267" name="グループ化 266"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772150" y="7248525"/>
+          <a:ext cx="6705600" cy="1038226"/>
+          <a:chOff x="5772150" y="11772900"/>
+          <a:chExt cx="6705600" cy="1038226"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="268" name="正方形/長方形 267"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="11772900"/>
+            <a:ext cx="6705600" cy="1038226"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="269" name="正方形/長方形 268"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5857875" y="11877675"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="270" name="正方形/長方形 269"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5934077" y="11915775"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Base editing "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="271" name="正方形/長方形 270"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7524752" y="11915775"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>"Add" editing "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="272" name="正方形/長方形 271"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9096377" y="11915775"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Relative position</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="273" name="正方形/長方形 272"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10687052" y="11915775"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Auto Dimensions</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="274" name="正方形/長方形 273"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5934077" y="12353925"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Released</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="275" name="グループ化 274"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772150" y="3457575"/>
+          <a:ext cx="6705600" cy="1038226"/>
+          <a:chOff x="5772150" y="11772900"/>
+          <a:chExt cx="6705600" cy="1038226"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="276" name="正方形/長方形 275"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="11772900"/>
+            <a:ext cx="6705600" cy="1038226"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="277" name="正方形/長方形 276"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7448550" y="11877675"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="278" name="正方形/長方形 277"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5934077" y="11915775"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Base editing "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="279" name="正方形/長方形 278"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7524752" y="11915775"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>"Add" editing "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="280" name="正方形/長方形 279"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9096377" y="11915775"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Relative position</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="281" name="正方形/長方形 280"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10687052" y="11915775"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Auto Dimensions</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="282" name="正方形/長方形 281"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5934077" y="12353925"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Released</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="284" name="グループ化 283"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7829550" y="20812125"/>
+          <a:ext cx="6705600" cy="1038226"/>
+          <a:chOff x="5772150" y="11772900"/>
+          <a:chExt cx="6705600" cy="1038226"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="285" name="正方形/長方形 284"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="11772900"/>
+            <a:ext cx="6705600" cy="1038226"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="286" name="正方形/長方形 285"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10620375" y="11877675"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="287" name="正方形/長方形 286"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5934077" y="11915775"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Base editing "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="288" name="正方形/長方形 287"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7524752" y="11915775"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>"Add" editing "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="289" name="正方形/長方形 288"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9096377" y="11915775"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Relative position</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="290" name="正方形/長方形 289"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10687052" y="11915775"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Auto Dimensions</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="291" name="正方形/長方形 290"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5934077" y="12353925"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Released</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="292" name="グループ化 291"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2466975" y="16278225"/>
+          <a:ext cx="2000250" cy="4133850"/>
+          <a:chOff x="2476500" y="2933700"/>
+          <a:chExt cx="2000250" cy="4133850"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="293" name="図 292"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2514600" y="2933700"/>
+            <a:ext cx="1885950" cy="4133850"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="294" name="正方形/長方形 293"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2476500" y="4742012"/>
+            <a:ext cx="962026" cy="315764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="295" name="正方形/長方形 294"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3467100" y="6848474"/>
+            <a:ext cx="1009650" cy="209551"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="296" name="グループ化 295"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5762625" y="16287750"/>
+          <a:ext cx="6705600" cy="1038226"/>
+          <a:chOff x="5772150" y="11772900"/>
+          <a:chExt cx="6705600" cy="1038226"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="297" name="正方形/長方形 296"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="11772900"/>
+            <a:ext cx="6705600" cy="1038226"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="298" name="正方形/長方形 297"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5857875" y="12306300"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="299" name="正方形/長方形 298"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5934077" y="11915775"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Base editing "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="300" name="正方形/長方形 299"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7524752" y="11915775"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>"Add" editing "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="301" name="正方形/長方形 300"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9096377" y="11915775"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Relative position</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="302" name="正方形/長方形 301"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10687052" y="11915775"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Auto Dimensions</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="303" name="正方形/長方形 302"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5934077" y="12353925"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Released</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161927</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="162" name="カギ線コネクタ 161"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="295" idx="3"/>
+          <a:endCxn id="303" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4467225" y="17011650"/>
+          <a:ext cx="1457327" cy="3286125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 20588"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66686</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="331" name="グループ化 330"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3438525" y="2876550"/>
+          <a:ext cx="7772400" cy="2038361"/>
+          <a:chOff x="3438525" y="2876550"/>
+          <a:chExt cx="7772400" cy="2038361"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="152" name="カギ線コネクタ 151"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="3438525" y="3371850"/>
+            <a:ext cx="7667625" cy="1543061"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 28509"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="none"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="328" name="直線矢印コネクタ 327"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="11115675" y="2876550"/>
+            <a:ext cx="95250" cy="495300"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="00B0F0"/>
+            </a:solidFill>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="333" name="グループ化 332"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5057775" y="20812125"/>
+          <a:ext cx="1962150" cy="4152900"/>
+          <a:chOff x="5057775" y="20812125"/>
+          <a:chExt cx="1962150" cy="4152900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="241" name="図 240"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5057775" y="20812125"/>
+            <a:ext cx="1924050" cy="4152900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="正方形/長方形 111"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6029325" y="21002625"/>
+            <a:ext cx="990600" cy="257176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="332" name="正方形/長方形 331"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6029325" y="21421725"/>
+            <a:ext cx="990600" cy="257176"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142601</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>95092</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="337" name="グループ化 336"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772150" y="17726025"/>
+          <a:ext cx="2190476" cy="1266667"/>
+          <a:chOff x="5772150" y="17726025"/>
+          <a:chExt cx="2190476" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="334" name="図 333"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="17726025"/>
+            <a:ext cx="2190476" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="335" name="正方形/長方形 334"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5991225" y="18611850"/>
+            <a:ext cx="1914525" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114302</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="338" name="カギ線コネクタ 337"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="247" idx="3"/>
+          <a:endCxn id="290" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4438650" y="20955000"/>
+          <a:ext cx="8982077" cy="2847975"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 3287"/>
+            <a:gd name="adj2" fmla="val 113044"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="343" name="直線矢印コネクタ 342"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7029450" y="21145500"/>
+          <a:ext cx="1009650" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="345" name="カギ線コネクタ 344"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="332" idx="3"/>
+          <a:endCxn id="71" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7019925" y="21550313"/>
+          <a:ext cx="5953126" cy="928687"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 4240"/>
+            <a:gd name="adj2" fmla="val 124615"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -24629,7 +30797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
@@ -24658,8 +30826,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/外部設計/資料/円弧配列.xlsx
+++ b/外部設計/資料/円弧配列.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10035" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25380" windowHeight="10035" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="基準線" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="編集文字登録" sheetId="4" r:id="rId4"/>
     <sheet name="ラベリング" sheetId="5" r:id="rId5"/>
     <sheet name="グルーピング" sheetId="6" r:id="rId6"/>
+    <sheet name="ラベリングコード表" sheetId="7" r:id="rId7"/>
+    <sheet name="その他" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,13 +31,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="3">
   <si>
     <t>＜Advance CAD＞</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>＜Auto CAD＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -77,12 +83,38 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -91,12 +123,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2262,106 +2300,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="直線矢印コネクタ 116"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6248400" y="3533775"/>
-          <a:ext cx="9526" cy="895350"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>657226</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="120" name="直線矢印コネクタ 119"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11210925" y="3562350"/>
-          <a:ext cx="9526" cy="885825"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -5220,106 +5158,6 @@
         </xdr:style>
       </xdr:cxnSp>
     </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>505240</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>74544</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514766</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9111</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="123" name="直線矢印コネクタ 122"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="6278218" y="3520109"/>
-          <a:ext cx="9526" cy="895350"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>655569</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>103119</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>665095</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>28161</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="124" name="直線矢印コネクタ 123"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11240743" y="3548684"/>
-          <a:ext cx="9526" cy="885825"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="00B0F0"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -30445,6 +30283,3342 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772149" y="838200"/>
+          <a:ext cx="3267076" cy="571500"/>
+          <a:chOff x="5772149" y="838200"/>
+          <a:chExt cx="3267076" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="838200"/>
+            <a:ext cx="3267076" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5867400" y="971550"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Brand</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6905625" y="971550"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>C Hyou</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7953375" y="971550"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>承認申請図</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5838825" y="942975"/>
+            <a:ext cx="1009650" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="グループ化 14"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="247650" y="771525"/>
+          <a:ext cx="1981201" cy="6391275"/>
+          <a:chOff x="200024" y="771525"/>
+          <a:chExt cx="1981201" cy="6391275"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="図 15"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="228600" y="819150"/>
+            <a:ext cx="1924050" cy="6343650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1209675" y="771525"/>
+            <a:ext cx="971550" cy="314325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="200024" y="4371975"/>
+            <a:ext cx="1038226" cy="314325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="146" name="グループ化 145"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772150" y="3067050"/>
+          <a:ext cx="2486025" cy="571500"/>
+          <a:chOff x="5772150" y="3067050"/>
+          <a:chExt cx="2486025" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="3067050"/>
+            <a:ext cx="2486025" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886452" y="3219450"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Create</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="正方形/長方形 24"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5829300" y="3181350"/>
+            <a:ext cx="876301" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7115177" y="3219450"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Delete</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="直線矢印コネクタ 31"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="17" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228851" y="928688"/>
+          <a:ext cx="3800474" cy="204787"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="145" name="グループ化 144"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772151" y="2476500"/>
+          <a:ext cx="5010149" cy="590550"/>
+          <a:chOff x="5772151" y="2476500"/>
+          <a:chExt cx="5010149" cy="590550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772151" y="2476500"/>
+            <a:ext cx="5010149" cy="590550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="2628900"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Code table</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5810250" y="2590800"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="144" name="グループ化 143"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772149" y="1419225"/>
+          <a:ext cx="5010151" cy="1057275"/>
+          <a:chOff x="5772149" y="1419225"/>
+          <a:chExt cx="5010151" cy="1057275"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="1419225"/>
+            <a:ext cx="5010151" cy="1057275"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5867401" y="1552575"/>
+            <a:ext cx="1362074" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Primitive "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7381876" y="1552575"/>
+            <a:ext cx="1343024" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Editing "CH"</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8886825" y="1552575"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Brand placement</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5876925" y="1990725"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Brand</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> drawing</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="142" name="正方形/長方形 141"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5810250" y="1952625"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="143" name="正方形/長方形 142"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7391400" y="1990725"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Character search</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="147" name="グループ化 146"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8515350" y="3200400"/>
+          <a:ext cx="2486025" cy="571500"/>
+          <a:chOff x="5772150" y="3067050"/>
+          <a:chExt cx="2486025" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="148" name="正方形/長方形 147"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="3067050"/>
+            <a:ext cx="2486025" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="149" name="正方形/長方形 148"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886452" y="3219450"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Create</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="150" name="正方形/長方形 149"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7048500" y="3181350"/>
+            <a:ext cx="876301" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="151" name="正方形/長方形 150"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7115177" y="3219450"/>
+            <a:ext cx="723900" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Delete</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="153" name="グループ化 152"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2447925" y="2952750"/>
+          <a:ext cx="1990725" cy="4152900"/>
+          <a:chOff x="2447925" y="2952750"/>
+          <a:chExt cx="1990725" cy="4152900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="138" name="図 137"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2466975" y="2952750"/>
+            <a:ext cx="1924050" cy="4152900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2447925" y="3113237"/>
+            <a:ext cx="962026" cy="315764"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3429000" y="2962274"/>
+            <a:ext cx="1009650" cy="209551"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="152" name="正方形/長方形 151"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3419475" y="3381374"/>
+            <a:ext cx="1009650" cy="209551"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157163</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="カギ線コネクタ 39"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1285876" y="2143125"/>
+          <a:ext cx="4762499" cy="2386013"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 22400"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>89769</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="157" name="カギ線コネクタ 156"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3409951" y="2781300"/>
+          <a:ext cx="2638424" cy="489819"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 53249"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="161" name="直線矢印コネクタ 160"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4438650" y="3067050"/>
+          <a:ext cx="1581150" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>352426</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="カギ線コネクタ 163"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="152" idx="3"/>
+          <a:endCxn id="150" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4429125" y="3486150"/>
+          <a:ext cx="5800726" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector4">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 6486"/>
+            <a:gd name="adj2" fmla="val 214286"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161648</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76042</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="173" name="グループ化 172"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5762625" y="4133850"/>
+          <a:ext cx="2219048" cy="1266667"/>
+          <a:chOff x="5762625" y="4133850"/>
+          <a:chExt cx="2219048" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="171" name="図 170"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5762625" y="4133850"/>
+            <a:ext cx="2219048" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="172" name="正方形/長方形 171"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6048375" y="5019675"/>
+            <a:ext cx="1857375" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161648</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76042</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="175" name="グループ化 174"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8505825" y="4133850"/>
+          <a:ext cx="2219048" cy="1266667"/>
+          <a:chOff x="8505825" y="4133850"/>
+          <a:chExt cx="2219048" cy="1266667"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="174" name="図 173"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8505825" y="4133850"/>
+            <a:ext cx="2219048" cy="1266667"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8782050" y="5019675"/>
+            <a:ext cx="1857375" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772149" y="1390650"/>
+          <a:ext cx="3267076" cy="571500"/>
+          <a:chOff x="5772149" y="838200"/>
+          <a:chExt cx="3267076" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="838200"/>
+            <a:ext cx="3267076" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5867400" y="971550"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Drawing</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5838825" y="942975"/>
+            <a:ext cx="1009650" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="54" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="2228851"/>
+          <a:ext cx="3781425" cy="180974"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9527</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="63" name="グループ化 62"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772152" y="2533650"/>
+          <a:ext cx="3267074" cy="590550"/>
+          <a:chOff x="5772152" y="3248025"/>
+          <a:chExt cx="3267074" cy="590550"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772152" y="3248025"/>
+            <a:ext cx="3267074" cy="590550"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5886451" y="3400425"/>
+            <a:ext cx="1352549" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Save Title</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5810250" y="3362325"/>
+            <a:ext cx="1514475" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="直線矢印コネクタ 41"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2209801" y="3562350"/>
+          <a:ext cx="3838574" cy="3895726"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="81" name="グループ化 80"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="200025" y="1390650"/>
+          <a:ext cx="2028825" cy="6324600"/>
+          <a:chOff x="200025" y="2105025"/>
+          <a:chExt cx="2028825" cy="6324600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="52" name="図 51"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="285750" y="2105025"/>
+            <a:ext cx="1876425" cy="6324600"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1238251" y="7334251"/>
+            <a:ext cx="971550" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="200025" y="7096125"/>
+            <a:ext cx="1038226" cy="314325"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="54" name="正方形/長方形 53"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1219200" y="2105026"/>
+            <a:ext cx="1009650" cy="247650"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="57" name="グループ化 56"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772149" y="1962150"/>
+          <a:ext cx="3267076" cy="571500"/>
+          <a:chOff x="5772149" y="838200"/>
+          <a:chExt cx="3267076" cy="571500"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="正方形/長方形 57"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772149" y="838200"/>
+            <a:ext cx="3267076" cy="571500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="正方形/長方形 58"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5867400" y="971550"/>
+            <a:ext cx="933450" cy="285750"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Title</a:t>
+            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="60" name="正方形/長方形 59"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5838825" y="942975"/>
+            <a:ext cx="1009650" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>37496</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>199199</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="75" name="グループ化 74"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5772150" y="3305175"/>
+          <a:ext cx="4828571" cy="6609524"/>
+          <a:chOff x="5772150" y="4019550"/>
+          <a:chExt cx="4828571" cy="6609524"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="73" name="図 72"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5772150" y="4019550"/>
+            <a:ext cx="4828571" cy="6609524"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="74" name="正方形/長方形 73"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8429625" y="10220325"/>
+            <a:ext cx="1971675" cy="371475"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>④</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="76" name="正方形/長方形 75"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8143875" y="4448176"/>
+            <a:ext cx="1609725" cy="276224"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>①</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="78" name="正方形/長方形 77"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8143875" y="4733926"/>
+            <a:ext cx="1609725" cy="276224"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="正方形/長方形 78"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8181975" y="5295901"/>
+            <a:ext cx="2076450" cy="4752974"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>③</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="カギ線コネクタ 39"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1276350" y="2952750"/>
+          <a:ext cx="4695825" cy="4133850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 22819"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -30710,7 +33884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -30768,7 +33942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
@@ -30797,7 +33971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N82" sqref="N82"/>
     </sheetView>
   </sheetViews>
@@ -30826,7 +34000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B67" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
@@ -30855,7 +34029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D85" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -30878,4 +34052,72 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J2"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="4" spans="2:10" ht="25.5" x14ac:dyDescent="0.4">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>